--- a/Results Comparison Graphs.xlsx
+++ b/Results Comparison Graphs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura.varsandan\Google Drive\MscDataScience\ML-Coursework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aczc996\Downloads\Machine Learning\CW code\ML-Coursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1F5ED533-78BC-45FF-AA88-95E8D077C41A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11370" xr2:uid="{17E06310-634B-439C-9792-0EF428503B30}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +17,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$P$3:$R$11</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -111,7 +110,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -172,6 +171,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,6 +593,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -619,6 +622,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -626,7 +630,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1248,7 +1251,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Laura Varsandan" refreshedDate="43421.755139930552" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="346" xr:uid="{DFC60AA3-3A54-4D7F-B4FC-60B8DCFFAE5B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Laura Varsandan" refreshedDate="43421.755139930552" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="346">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E1048576" sheet="Sheet1"/>
   </cacheSource>
@@ -3719,7 +3722,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{89DB3761-D4AE-4D66-9B89-C52E133F075D}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="I2:M9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -4102,26 +4105,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FCA535-5F84-4718-801F-8397185E1DB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+      <selection activeCell="C2" sqref="C2:C346"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4138,14 +4142,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="str">
@@ -4166,14 +4170,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="str">
@@ -4209,14 +4213,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="str">
@@ -4250,14 +4254,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="str">
@@ -4291,14 +4295,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="str">
@@ -4332,14 +4336,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="str">
@@ -4373,14 +4377,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D8" t="str">
@@ -4408,14 +4412,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D9" t="str">
@@ -4449,14 +4453,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D10" t="str">
@@ -4477,14 +4481,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D11" t="str">
@@ -4505,14 +4509,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D12" t="str">
@@ -4524,14 +4528,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D13" t="str">
@@ -4543,14 +4547,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D14" t="str">
@@ -4562,14 +4566,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D15" t="str">
@@ -4581,14 +4585,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D16" t="str">
@@ -4600,14 +4604,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D17" t="str">
@@ -4619,14 +4623,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D18" t="str">
@@ -4638,14 +4642,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D19" t="str">
@@ -4657,14 +4661,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D20" t="str">
@@ -4676,14 +4680,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D21" t="str">
@@ -4695,14 +4699,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D22" t="str">
@@ -4714,14 +4718,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D23" t="str">
@@ -4733,14 +4737,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D24" t="str">
@@ -4752,14 +4756,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D25" t="str">
@@ -4771,14 +4775,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D26" t="str">
@@ -4790,14 +4794,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D27" t="str">
@@ -4809,14 +4813,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D28" t="str">
@@ -4828,14 +4832,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D29" t="str">
@@ -4847,14 +4851,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D30" t="str">
@@ -4866,14 +4870,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D31" t="str">
@@ -4885,14 +4889,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D32" t="str">
@@ -4904,14 +4908,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D33" t="str">
@@ -4923,14 +4927,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>3</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D34" t="str">
@@ -4942,14 +4946,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>3</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D35" t="str">
@@ -4961,14 +4965,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>3</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D36" t="str">
@@ -4980,14 +4984,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D37" t="str">
@@ -4999,14 +5003,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D38" t="str">
@@ -5018,14 +5022,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D39" t="str">
@@ -5037,14 +5041,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D40" t="str">
@@ -5056,14 +5060,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D41" t="str">
@@ -5075,14 +5079,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D42" t="str">
@@ -5094,14 +5098,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D43" t="str">
@@ -5113,14 +5117,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>3</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D44" t="str">
@@ -5132,14 +5136,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>3</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D45" t="str">
@@ -5151,14 +5155,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>3</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D46" t="str">
@@ -5170,14 +5174,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>3</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D47" t="str">
@@ -5189,14 +5193,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>3</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D48" t="str">
@@ -5208,14 +5212,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D49" t="str">
@@ -5227,14 +5231,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>3</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D50" t="str">
@@ -5246,14 +5250,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>3</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D51" t="str">
@@ -5265,14 +5269,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>3</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D52" t="str">
@@ -5284,14 +5288,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>4</v>
       </c>
       <c r="B53" t="s">
         <v>4</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D53" t="str">
@@ -5303,15 +5307,15 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>3</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
       </c>
-      <c r="C54" t="s">
-        <v>4</v>
+      <c r="C54" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
@@ -5319,17 +5323,17 @@
       </c>
       <c r="E54" t="str">
         <f t="shared" si="1"/>
-        <v>Incorrect</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>4</v>
       </c>
       <c r="B55" t="s">
         <v>4</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D55" t="str">
@@ -5341,14 +5345,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>3</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D56" t="str">
@@ -5360,14 +5364,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>3</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D57" t="str">
@@ -5379,14 +5383,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>4</v>
       </c>
       <c r="B58" t="s">
         <v>4</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D58" t="str">
@@ -5398,14 +5402,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>3</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D59" t="str">
@@ -5417,14 +5421,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>4</v>
       </c>
       <c r="B60" t="s">
         <v>4</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D60" t="str">
@@ -5436,14 +5440,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>4</v>
       </c>
       <c r="B61" t="s">
         <v>4</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D61" t="str">
@@ -5455,14 +5459,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>3</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D62" t="str">
@@ -5474,14 +5478,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>3</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D63" t="str">
@@ -5493,14 +5497,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>3</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D64" t="str">
@@ -5512,14 +5516,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>4</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D65" t="str">
@@ -5531,14 +5535,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>3</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D66" t="str">
@@ -5550,14 +5554,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>3</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D67" t="str">
@@ -5569,14 +5573,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>3</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D68" t="str">
@@ -5588,14 +5592,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>3</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D69" t="str">
@@ -5607,14 +5611,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>3</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D70" t="str">
@@ -5626,14 +5630,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>4</v>
       </c>
       <c r="B71" t="s">
         <v>4</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D71" t="str">
@@ -5645,14 +5649,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>4</v>
       </c>
       <c r="B72" t="s">
         <v>4</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D72" t="str">
@@ -5664,14 +5668,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>3</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D73" t="str">
@@ -5683,14 +5687,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D74" t="str">
@@ -5702,14 +5706,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>3</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D75" t="str">
@@ -5721,14 +5725,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>3</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D76" t="str">
@@ -5740,14 +5744,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>3</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D77" t="str">
@@ -5759,14 +5763,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>3</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D78" t="str">
@@ -5778,14 +5782,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>3</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D79" t="str">
@@ -5797,14 +5801,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D80" t="str">
@@ -5816,14 +5820,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>3</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D81" t="str">
@@ -5835,14 +5839,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>3</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D82" t="str">
@@ -5854,14 +5858,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>3</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D83" t="str">
@@ -5873,14 +5877,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>3</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D84" t="str">
@@ -5892,14 +5896,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>4</v>
       </c>
       <c r="B85" t="s">
         <v>4</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D85" t="str">
@@ -5911,14 +5915,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>3</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D86" t="str">
@@ -5930,14 +5934,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>4</v>
       </c>
       <c r="B87" t="s">
         <v>3</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D87" t="str">
@@ -5949,14 +5953,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>3</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D88" t="str">
@@ -5968,14 +5972,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>3</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D89" t="str">
@@ -5987,14 +5991,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>3</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D90" t="str">
@@ -6006,14 +6010,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>4</v>
       </c>
       <c r="B91" t="s">
         <v>4</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D91" t="str">
@@ -6025,14 +6029,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>3</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D92" t="str">
@@ -6044,14 +6048,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>4</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D93" t="str">
@@ -6063,14 +6067,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>3</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D94" t="str">
@@ -6082,14 +6086,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>3</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D95" t="str">
@@ -6101,14 +6105,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>3</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D96" t="str">
@@ -6120,14 +6124,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>3</v>
       </c>
       <c r="B97" t="s">
         <v>3</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D97" t="str">
@@ -6139,14 +6143,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>3</v>
       </c>
       <c r="B98" t="s">
         <v>3</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D98" t="str">
@@ -6158,14 +6162,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>3</v>
       </c>
       <c r="B99" t="s">
         <v>3</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D99" t="str">
@@ -6177,14 +6181,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>3</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D100" t="str">
@@ -6196,14 +6200,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>3</v>
       </c>
       <c r="B101" t="s">
         <v>3</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D101" t="str">
@@ -6215,14 +6219,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>3</v>
       </c>
       <c r="B102" t="s">
         <v>3</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D102" t="str">
@@ -6234,14 +6238,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>3</v>
       </c>
       <c r="B103" t="s">
         <v>3</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D103" t="str">
@@ -6253,14 +6257,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>3</v>
       </c>
       <c r="B104" t="s">
         <v>3</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D104" t="str">
@@ -6272,14 +6276,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>3</v>
       </c>
       <c r="B105" t="s">
         <v>3</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D105" t="str">
@@ -6291,14 +6295,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>3</v>
       </c>
       <c r="B106" t="s">
         <v>3</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D106" t="str">
@@ -6310,14 +6314,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>3</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D107" t="str">
@@ -6329,14 +6333,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>3</v>
       </c>
       <c r="B108" t="s">
         <v>3</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D108" t="str">
@@ -6348,14 +6352,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>3</v>
       </c>
       <c r="B109" t="s">
         <v>3</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D109" t="str">
@@ -6367,14 +6371,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>3</v>
       </c>
       <c r="B110" t="s">
         <v>3</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D110" t="str">
@@ -6386,14 +6390,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>3</v>
       </c>
       <c r="B111" t="s">
         <v>3</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D111" t="str">
@@ -6405,14 +6409,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>3</v>
       </c>
       <c r="B112" t="s">
         <v>3</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D112" t="str">
@@ -6424,14 +6428,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>3</v>
       </c>
       <c r="B113" t="s">
         <v>3</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D113" t="str">
@@ -6443,14 +6447,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>3</v>
       </c>
       <c r="B114" t="s">
         <v>3</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D114" t="str">
@@ -6462,14 +6466,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>3</v>
       </c>
       <c r="B115" t="s">
         <v>3</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D115" t="str">
@@ -6481,14 +6485,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>3</v>
       </c>
       <c r="B116" t="s">
         <v>4</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D116" t="str">
@@ -6500,14 +6504,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>3</v>
       </c>
       <c r="B117" t="s">
         <v>3</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D117" t="str">
@@ -6519,14 +6523,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>3</v>
       </c>
       <c r="B118" t="s">
         <v>3</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D118" t="str">
@@ -6538,14 +6542,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>3</v>
       </c>
       <c r="B119" t="s">
         <v>3</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D119" t="str">
@@ -6557,14 +6561,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>3</v>
       </c>
       <c r="B120" t="s">
         <v>3</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D120" t="str">
@@ -6576,14 +6580,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>4</v>
       </c>
       <c r="B121" t="s">
         <v>4</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D121" t="str">
@@ -6595,14 +6599,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>3</v>
       </c>
       <c r="B122" t="s">
         <v>3</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D122" t="str">
@@ -6614,14 +6618,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>3</v>
       </c>
       <c r="B123" t="s">
         <v>3</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D123" t="str">
@@ -6633,14 +6637,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>4</v>
       </c>
       <c r="B124" t="s">
         <v>3</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D124" t="str">
@@ -6652,14 +6656,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>4</v>
       </c>
       <c r="B125" t="s">
         <v>4</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D125" t="str">
@@ -6671,14 +6675,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>4</v>
       </c>
       <c r="B126" t="s">
         <v>4</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D126" t="str">
@@ -6690,14 +6694,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>3</v>
       </c>
       <c r="B127" t="s">
         <v>3</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D127" t="str">
@@ -6709,14 +6713,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>3</v>
       </c>
       <c r="B128" t="s">
         <v>3</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D128" t="str">
@@ -6728,14 +6732,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>4</v>
       </c>
       <c r="B129" t="s">
         <v>3</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D129" t="str">
@@ -6747,14 +6751,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>3</v>
       </c>
       <c r="B130" t="s">
         <v>3</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D130" t="str">
@@ -6766,14 +6770,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>3</v>
       </c>
       <c r="B131" t="s">
         <v>3</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D131" t="str">
@@ -6785,14 +6789,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>3</v>
       </c>
       <c r="B132" t="s">
         <v>3</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D132" t="str">
@@ -6804,14 +6808,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>4</v>
       </c>
       <c r="B133" t="s">
         <v>3</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D133" t="str">
@@ -6823,14 +6827,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>4</v>
       </c>
       <c r="B134" t="s">
         <v>4</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D134" t="str">
@@ -6842,14 +6846,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>4</v>
       </c>
       <c r="B135" t="s">
         <v>4</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D135" t="str">
@@ -6861,14 +6865,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>3</v>
       </c>
       <c r="B136" t="s">
         <v>3</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D136" t="str">
@@ -6880,14 +6884,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>3</v>
       </c>
       <c r="B137" t="s">
         <v>3</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D137" t="str">
@@ -6899,14 +6903,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>3</v>
       </c>
       <c r="B138" t="s">
         <v>3</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D138" t="str">
@@ -6918,14 +6922,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>3</v>
       </c>
       <c r="B139" t="s">
         <v>3</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D139" t="str">
@@ -6937,14 +6941,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>4</v>
       </c>
       <c r="B140" t="s">
         <v>4</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D140" t="str">
@@ -6956,14 +6960,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>3</v>
       </c>
       <c r="B141" t="s">
         <v>4</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D141" t="str">
@@ -6975,14 +6979,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>4</v>
       </c>
       <c r="B142" t="s">
         <v>4</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D142" t="str">
@@ -6994,14 +6998,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>4</v>
       </c>
       <c r="B143" t="s">
         <v>4</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D143" t="str">
@@ -7013,14 +7017,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>3</v>
       </c>
       <c r="B144" t="s">
         <v>3</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D144" t="str">
@@ -7032,14 +7036,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>3</v>
       </c>
       <c r="B145" t="s">
         <v>3</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D145" t="str">
@@ -7051,14 +7055,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>3</v>
       </c>
       <c r="B146" t="s">
         <v>4</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D146" t="str">
@@ -7070,14 +7074,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>4</v>
       </c>
       <c r="B147" t="s">
         <v>4</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D147" t="str">
@@ -7089,14 +7093,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>4</v>
       </c>
       <c r="B148" t="s">
         <v>4</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D148" t="str">
@@ -7108,14 +7112,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>3</v>
       </c>
       <c r="B149" t="s">
         <v>3</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D149" t="str">
@@ -7127,14 +7131,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>3</v>
       </c>
       <c r="B150" t="s">
         <v>3</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D150" t="str">
@@ -7146,14 +7150,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>3</v>
       </c>
       <c r="B151" t="s">
         <v>3</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D151" t="str">
@@ -7165,14 +7169,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>3</v>
       </c>
       <c r="B152" t="s">
         <v>3</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D152" t="str">
@@ -7184,14 +7188,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>3</v>
       </c>
       <c r="B153" t="s">
         <v>3</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D153" t="str">
@@ -7203,14 +7207,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>3</v>
       </c>
       <c r="B154" t="s">
         <v>3</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D154" t="str">
@@ -7222,15 +7226,15 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>3</v>
       </c>
       <c r="B155" t="s">
         <v>3</v>
       </c>
-      <c r="C155" t="s">
-        <v>4</v>
+      <c r="C155" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="D155" t="str">
         <f t="shared" si="4"/>
@@ -7238,17 +7242,17 @@
       </c>
       <c r="E155" t="str">
         <f t="shared" si="5"/>
-        <v>Incorrect</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>4</v>
       </c>
       <c r="B156" t="s">
         <v>4</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D156" t="str">
@@ -7260,14 +7264,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>4</v>
       </c>
       <c r="B157" t="s">
         <v>4</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D157" t="str">
@@ -7279,14 +7283,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>4</v>
       </c>
       <c r="B158" t="s">
         <v>4</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D158" t="str">
@@ -7298,14 +7302,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>3</v>
       </c>
       <c r="B159" t="s">
         <v>3</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D159" t="str">
@@ -7317,14 +7321,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>3</v>
       </c>
       <c r="B160" t="s">
         <v>3</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D160" t="str">
@@ -7336,14 +7340,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>3</v>
       </c>
       <c r="B161" t="s">
         <v>3</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D161" t="str">
@@ -7355,14 +7359,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>3</v>
       </c>
       <c r="B162" t="s">
         <v>3</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D162" t="str">
@@ -7374,14 +7378,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>3</v>
       </c>
       <c r="B163" t="s">
         <v>3</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D163" t="str">
@@ -7393,14 +7397,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>4</v>
       </c>
       <c r="B164" t="s">
         <v>4</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D164" t="str">
@@ -7412,14 +7416,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>4</v>
       </c>
       <c r="B165" t="s">
         <v>4</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D165" t="str">
@@ -7431,14 +7435,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>3</v>
       </c>
       <c r="B166" t="s">
         <v>3</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D166" t="str">
@@ -7450,14 +7454,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>3</v>
       </c>
       <c r="B167" t="s">
         <v>3</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D167" t="str">
@@ -7469,14 +7473,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>4</v>
       </c>
       <c r="B168" t="s">
         <v>4</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D168" t="str">
@@ -7488,14 +7492,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>4</v>
       </c>
       <c r="B169" t="s">
         <v>4</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D169" t="str">
@@ -7507,14 +7511,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>4</v>
       </c>
       <c r="B170" t="s">
         <v>4</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D170" t="str">
@@ -7526,14 +7530,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>3</v>
       </c>
       <c r="B171" t="s">
         <v>3</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D171" t="str">
@@ -7545,14 +7549,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>3</v>
       </c>
       <c r="B172" t="s">
         <v>3</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D172" t="str">
@@ -7564,14 +7568,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>3</v>
       </c>
       <c r="B173" t="s">
         <v>3</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D173" t="str">
@@ -7583,14 +7587,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>4</v>
       </c>
       <c r="B174" t="s">
         <v>3</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D174" t="str">
@@ -7602,14 +7606,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>3</v>
       </c>
       <c r="B175" t="s">
         <v>3</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D175" t="str">
@@ -7621,14 +7625,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>3</v>
       </c>
       <c r="B176" t="s">
         <v>3</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D176" t="str">
@@ -7640,14 +7644,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>3</v>
       </c>
       <c r="B177" t="s">
         <v>3</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D177" t="str">
@@ -7659,14 +7663,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>3</v>
       </c>
       <c r="B178" t="s">
         <v>3</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D178" t="str">
@@ -7678,15 +7682,15 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>3</v>
       </c>
       <c r="B179" t="s">
         <v>4</v>
       </c>
-      <c r="C179" t="s">
-        <v>3</v>
+      <c r="C179" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="D179" t="str">
         <f t="shared" si="4"/>
@@ -7694,17 +7698,17 @@
       </c>
       <c r="E179" t="str">
         <f t="shared" si="5"/>
-        <v>Correct</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+        <v>Incorrect</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>4</v>
       </c>
       <c r="B180" t="s">
         <v>4</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D180" t="str">
@@ -7716,14 +7720,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>3</v>
       </c>
       <c r="B181" t="s">
         <v>3</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D181" t="str">
@@ -7735,14 +7739,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>4</v>
       </c>
       <c r="B182" t="s">
         <v>4</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D182" t="str">
@@ -7754,14 +7758,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>3</v>
       </c>
       <c r="B183" t="s">
         <v>3</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D183" t="str">
@@ -7773,14 +7777,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>4</v>
       </c>
       <c r="B184" t="s">
         <v>4</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D184" t="str">
@@ -7792,14 +7796,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>3</v>
       </c>
       <c r="B185" t="s">
         <v>3</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D185" t="str">
@@ -7811,14 +7815,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>3</v>
       </c>
       <c r="B186" t="s">
         <v>3</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D186" t="str">
@@ -7830,14 +7834,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>3</v>
       </c>
       <c r="B187" t="s">
         <v>3</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D187" t="str">
@@ -7849,14 +7853,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>4</v>
       </c>
       <c r="B188" t="s">
         <v>4</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D188" t="str">
@@ -7868,14 +7872,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>4</v>
       </c>
       <c r="B189" t="s">
         <v>3</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D189" t="str">
@@ -7887,14 +7891,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>3</v>
       </c>
       <c r="B190" t="s">
         <v>3</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D190" t="str">
@@ -7906,14 +7910,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>4</v>
       </c>
       <c r="B191" t="s">
         <v>4</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D191" t="str">
@@ -7925,14 +7929,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>4</v>
       </c>
       <c r="B192" t="s">
         <v>4</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D192" t="str">
@@ -7944,14 +7948,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>4</v>
       </c>
       <c r="B193" t="s">
         <v>3</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D193" t="str">
@@ -7963,14 +7967,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>3</v>
       </c>
       <c r="B194" t="s">
         <v>3</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D194" t="str">
@@ -7982,14 +7986,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>3</v>
       </c>
       <c r="B195" t="s">
         <v>3</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D195" t="str">
@@ -8001,14 +8005,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>4</v>
       </c>
       <c r="B196" t="s">
         <v>4</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D196" t="str">
@@ -8020,14 +8024,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>3</v>
       </c>
       <c r="B197" t="s">
         <v>3</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D197" t="str">
@@ -8039,14 +8043,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>4</v>
       </c>
       <c r="B198" t="s">
         <v>4</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D198" t="str">
@@ -8058,14 +8062,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>4</v>
       </c>
       <c r="B199" t="s">
         <v>4</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D199" t="str">
@@ -8077,14 +8081,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>4</v>
       </c>
       <c r="B200" t="s">
         <v>4</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C200" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D200" t="str">
@@ -8096,14 +8100,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>4</v>
       </c>
       <c r="B201" t="s">
         <v>4</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D201" t="str">
@@ -8115,14 +8119,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>3</v>
       </c>
       <c r="B202" t="s">
         <v>3</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D202" t="str">
@@ -8134,14 +8138,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>3</v>
       </c>
       <c r="B203" t="s">
         <v>3</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D203" t="str">
@@ -8153,14 +8157,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>3</v>
       </c>
       <c r="B204" t="s">
         <v>3</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D204" t="str">
@@ -8172,14 +8176,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>4</v>
       </c>
       <c r="B205" t="s">
         <v>4</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D205" t="str">
@@ -8191,14 +8195,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>3</v>
       </c>
       <c r="B206" t="s">
         <v>3</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C206" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D206" t="str">
@@ -8210,14 +8214,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>3</v>
       </c>
       <c r="B207" t="s">
         <v>3</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C207" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D207" t="str">
@@ -8229,14 +8233,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>4</v>
       </c>
       <c r="B208" t="s">
         <v>4</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C208" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D208" t="str">
@@ -8248,14 +8252,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>4</v>
       </c>
       <c r="B209" t="s">
         <v>4</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C209" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D209" t="str">
@@ -8267,14 +8271,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>3</v>
       </c>
       <c r="B210" t="s">
         <v>3</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C210" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D210" t="str">
@@ -8286,14 +8290,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>4</v>
       </c>
       <c r="B211" t="s">
         <v>4</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C211" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D211" t="str">
@@ -8305,14 +8309,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>3</v>
       </c>
       <c r="B212" t="s">
         <v>3</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C212" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D212" t="str">
@@ -8324,14 +8328,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>5</v>
       </c>
       <c r="B213" t="s">
         <v>4</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C213" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D213" t="str">
@@ -8343,14 +8347,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>3</v>
       </c>
       <c r="B214" t="s">
         <v>3</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C214" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D214" t="str">
@@ -8362,14 +8366,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>3</v>
       </c>
       <c r="B215" t="s">
         <v>3</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C215" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D215" t="str">
@@ -8381,14 +8385,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>3</v>
       </c>
       <c r="B216" t="s">
         <v>3</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D216" t="str">
@@ -8400,14 +8404,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>3</v>
       </c>
       <c r="B217" t="s">
         <v>3</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C217" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D217" t="str">
@@ -8419,14 +8423,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>4</v>
       </c>
       <c r="B218" t="s">
         <v>4</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C218" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D218" t="str">
@@ -8438,14 +8442,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>3</v>
       </c>
       <c r="B219" t="s">
         <v>3</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C219" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D219" t="str">
@@ -8457,14 +8461,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>3</v>
       </c>
       <c r="B220" t="s">
         <v>3</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C220" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D220" t="str">
@@ -8476,14 +8480,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>4</v>
       </c>
       <c r="B221" t="s">
         <v>4</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C221" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D221" t="str">
@@ -8495,14 +8499,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>4</v>
       </c>
       <c r="B222" t="s">
         <v>4</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C222" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D222" t="str">
@@ -8514,14 +8518,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>3</v>
       </c>
       <c r="B223" t="s">
         <v>3</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C223" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D223" t="str">
@@ -8533,14 +8537,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>3</v>
       </c>
       <c r="B224" t="s">
         <v>3</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C224" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D224" t="str">
@@ -8552,14 +8556,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>3</v>
       </c>
       <c r="B225" t="s">
         <v>3</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C225" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D225" t="str">
@@ -8571,14 +8575,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>5</v>
       </c>
       <c r="B226" t="s">
         <v>4</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C226" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D226" t="str">
@@ -8590,14 +8594,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>5</v>
       </c>
       <c r="B227" t="s">
         <v>4</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C227" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D227" t="str">
@@ -8609,14 +8613,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>3</v>
       </c>
       <c r="B228" t="s">
         <v>3</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C228" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D228" t="str">
@@ -8628,14 +8632,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>3</v>
       </c>
       <c r="B229" t="s">
         <v>3</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C229" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D229" t="str">
@@ -8647,14 +8651,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>3</v>
       </c>
       <c r="B230" t="s">
         <v>3</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C230" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D230" t="str">
@@ -8666,14 +8670,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>4</v>
       </c>
       <c r="B231" t="s">
         <v>4</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C231" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D231" t="str">
@@ -8685,14 +8689,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>4</v>
       </c>
       <c r="B232" t="s">
         <v>4</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C232" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D232" t="str">
@@ -8704,14 +8708,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>5</v>
       </c>
       <c r="B233" t="s">
         <v>4</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C233" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D233" t="str">
@@ -8723,14 +8727,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>4</v>
       </c>
       <c r="B234" t="s">
         <v>4</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C234" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D234" t="str">
@@ -8742,14 +8746,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>3</v>
       </c>
       <c r="B235" t="s">
         <v>3</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C235" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D235" t="str">
@@ -8761,14 +8765,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>3</v>
       </c>
       <c r="B236" t="s">
         <v>3</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C236" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D236" t="str">
@@ -8780,14 +8784,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>3</v>
       </c>
       <c r="B237" t="s">
         <v>3</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C237" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D237" t="str">
@@ -8799,14 +8803,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>3</v>
       </c>
       <c r="B238" t="s">
         <v>3</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C238" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D238" t="str">
@@ -8818,15 +8822,15 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>6</v>
       </c>
       <c r="B239" t="s">
         <v>4</v>
       </c>
-      <c r="C239" t="s">
-        <v>4</v>
+      <c r="C239" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="D239" t="str">
         <f t="shared" si="6"/>
@@ -8834,17 +8838,17 @@
       </c>
       <c r="E239" t="str">
         <f t="shared" si="7"/>
-        <v>Incorrect</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>3</v>
       </c>
       <c r="B240" t="s">
         <v>3</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C240" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D240" t="str">
@@ -8856,14 +8860,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>3</v>
       </c>
       <c r="B241" t="s">
         <v>3</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C241" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D241" t="str">
@@ -8875,14 +8879,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>3</v>
       </c>
       <c r="B242" t="s">
         <v>3</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C242" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D242" t="str">
@@ -8894,14 +8898,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>6</v>
       </c>
       <c r="B243" t="s">
         <v>4</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C243" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D243" t="str">
@@ -8913,14 +8917,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>3</v>
       </c>
       <c r="B244" t="s">
         <v>3</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C244" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D244" t="str">
@@ -8932,14 +8936,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>3</v>
       </c>
       <c r="B245" t="s">
         <v>3</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C245" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D245" t="str">
@@ -8951,14 +8955,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>4</v>
       </c>
       <c r="B246" t="s">
         <v>4</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C246" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D246" t="str">
@@ -8970,14 +8974,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>6</v>
       </c>
       <c r="B247" t="s">
         <v>4</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C247" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D247" t="str">
@@ -8989,14 +8993,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>3</v>
       </c>
       <c r="B248" t="s">
         <v>3</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C248" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D248" t="str">
@@ -9008,14 +9012,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>4</v>
       </c>
       <c r="B249" t="s">
         <v>3</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C249" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D249" t="str">
@@ -9027,14 +9031,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>3</v>
       </c>
       <c r="B250" t="s">
         <v>3</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C250" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D250" t="str">
@@ -9046,14 +9050,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>3</v>
       </c>
       <c r="B251" t="s">
         <v>3</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C251" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D251" t="str">
@@ -9065,14 +9069,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>3</v>
       </c>
       <c r="B252" t="s">
         <v>3</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C252" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D252" t="str">
@@ -9084,14 +9088,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>5</v>
       </c>
       <c r="B253" t="s">
         <v>4</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C253" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D253" t="str">
@@ -9103,14 +9107,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>5</v>
       </c>
       <c r="B254" t="s">
         <v>4</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C254" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D254" t="str">
@@ -9122,14 +9126,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>3</v>
       </c>
       <c r="B255" t="s">
         <v>3</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C255" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D255" t="str">
@@ -9141,14 +9145,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>6</v>
       </c>
       <c r="B256" t="s">
         <v>4</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C256" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D256" t="str">
@@ -9160,14 +9164,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>3</v>
       </c>
       <c r="B257" t="s">
         <v>3</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C257" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D257" t="str">
@@ -9179,14 +9183,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>3</v>
       </c>
       <c r="B258" t="s">
         <v>3</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C258" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D258" t="str">
@@ -9198,14 +9202,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>3</v>
       </c>
       <c r="B259" t="s">
         <v>3</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C259" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D259" t="str">
@@ -9217,14 +9221,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>3</v>
       </c>
       <c r="B260" t="s">
         <v>3</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C260" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D260" t="str">
@@ -9236,14 +9240,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>3</v>
       </c>
       <c r="B261" t="s">
         <v>3</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C261" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D261" t="str">
@@ -9255,15 +9259,15 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>3</v>
       </c>
       <c r="B262" t="s">
         <v>3</v>
       </c>
-      <c r="C262" t="s">
-        <v>4</v>
+      <c r="C262" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="D262" t="str">
         <f t="shared" si="8"/>
@@ -9271,17 +9275,17 @@
       </c>
       <c r="E262" t="str">
         <f t="shared" si="9"/>
-        <v>Incorrect</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>4</v>
       </c>
       <c r="B263" t="s">
         <v>3</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C263" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D263" t="str">
@@ -9293,14 +9297,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>3</v>
       </c>
       <c r="B264" t="s">
         <v>3</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C264" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D264" t="str">
@@ -9312,14 +9316,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>3</v>
       </c>
       <c r="B265" t="s">
         <v>3</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C265" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D265" t="str">
@@ -9331,14 +9335,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>3</v>
       </c>
       <c r="B266" t="s">
         <v>3</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C266" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D266" t="str">
@@ -9350,14 +9354,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>3</v>
       </c>
       <c r="B267" t="s">
         <v>3</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C267" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D267" t="str">
@@ -9369,14 +9373,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>4</v>
       </c>
       <c r="B268" t="s">
         <v>4</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C268" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D268" t="str">
@@ -9388,14 +9392,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>3</v>
       </c>
       <c r="B269" t="s">
         <v>3</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C269" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D269" t="str">
@@ -9407,14 +9411,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>3</v>
       </c>
       <c r="B270" t="s">
         <v>3</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C270" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D270" t="str">
@@ -9426,14 +9430,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>4</v>
       </c>
       <c r="B271" t="s">
         <v>3</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C271" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D271" t="str">
@@ -9445,14 +9449,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>4</v>
       </c>
       <c r="B272" t="s">
         <v>3</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C272" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D272" t="str">
@@ -9464,14 +9468,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>4</v>
       </c>
       <c r="B273" t="s">
         <v>4</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C273" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D273" t="str">
@@ -9483,14 +9487,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>3</v>
       </c>
       <c r="B274" t="s">
         <v>3</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C274" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D274" t="str">
@@ -9502,14 +9506,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>4</v>
       </c>
       <c r="B275" t="s">
         <v>4</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C275" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D275" t="str">
@@ -9521,14 +9525,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>4</v>
       </c>
       <c r="B276" t="s">
         <v>3</v>
       </c>
-      <c r="C276" t="s">
+      <c r="C276" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D276" t="str">
@@ -9540,14 +9544,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>4</v>
       </c>
       <c r="B277" t="s">
         <v>3</v>
       </c>
-      <c r="C277" t="s">
+      <c r="C277" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D277" t="str">
@@ -9559,14 +9563,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>3</v>
       </c>
       <c r="B278" t="s">
         <v>3</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C278" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D278" t="str">
@@ -9578,14 +9582,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>3</v>
       </c>
       <c r="B279" t="s">
         <v>3</v>
       </c>
-      <c r="C279" t="s">
+      <c r="C279" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D279" t="str">
@@ -9597,14 +9601,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>3</v>
       </c>
       <c r="B280" t="s">
         <v>3</v>
       </c>
-      <c r="C280" t="s">
+      <c r="C280" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D280" t="str">
@@ -9616,14 +9620,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>3</v>
       </c>
       <c r="B281" t="s">
         <v>3</v>
       </c>
-      <c r="C281" t="s">
+      <c r="C281" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D281" t="str">
@@ -9635,14 +9639,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>3</v>
       </c>
       <c r="B282" t="s">
         <v>3</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C282" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D282" t="str">
@@ -9654,14 +9658,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>3</v>
       </c>
       <c r="B283" t="s">
         <v>3</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C283" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D283" t="str">
@@ -9673,14 +9677,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>3</v>
       </c>
       <c r="B284" t="s">
         <v>3</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C284" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D284" t="str">
@@ -9692,14 +9696,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>4</v>
       </c>
       <c r="B285" t="s">
         <v>4</v>
       </c>
-      <c r="C285" t="s">
+      <c r="C285" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D285" t="str">
@@ -9711,14 +9715,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>4</v>
       </c>
       <c r="B286" t="s">
         <v>4</v>
       </c>
-      <c r="C286" t="s">
+      <c r="C286" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D286" t="str">
@@ -9730,14 +9734,14 @@
         <v>Incorrect</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>3</v>
       </c>
       <c r="B287" t="s">
         <v>3</v>
       </c>
-      <c r="C287" t="s">
+      <c r="C287" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D287" t="str">
@@ -9749,14 +9753,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>3</v>
       </c>
       <c r="B288" t="s">
         <v>3</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C288" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D288" t="str">
@@ -9768,14 +9772,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>3</v>
       </c>
       <c r="B289" t="s">
         <v>3</v>
       </c>
-      <c r="C289" t="s">
+      <c r="C289" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D289" t="str">
@@ -9787,14 +9791,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>4</v>
       </c>
       <c r="B290" t="s">
         <v>4</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C290" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D290" t="str">
@@ -9806,14 +9810,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>3</v>
       </c>
       <c r="B291" t="s">
         <v>3</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C291" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D291" t="str">
@@ -9825,14 +9829,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>4</v>
       </c>
       <c r="B292" t="s">
         <v>4</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C292" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D292" t="str">
@@ -9844,14 +9848,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>5</v>
       </c>
       <c r="B293" t="s">
         <v>4</v>
       </c>
-      <c r="C293" t="s">
+      <c r="C293" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D293" t="str">
@@ -9863,14 +9867,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>3</v>
       </c>
       <c r="B294" t="s">
         <v>3</v>
       </c>
-      <c r="C294" t="s">
+      <c r="C294" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D294" t="str">
@@ -9882,14 +9886,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>3</v>
       </c>
       <c r="B295" t="s">
         <v>3</v>
       </c>
-      <c r="C295" t="s">
+      <c r="C295" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D295" t="str">
@@ -9901,14 +9905,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>3</v>
       </c>
       <c r="B296" t="s">
         <v>3</v>
       </c>
-      <c r="C296" t="s">
+      <c r="C296" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D296" t="str">
@@ -9920,14 +9924,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>5</v>
       </c>
       <c r="B297" t="s">
         <v>4</v>
       </c>
-      <c r="C297" t="s">
+      <c r="C297" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D297" t="str">
@@ -9939,14 +9943,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>4</v>
       </c>
       <c r="B298" t="s">
         <v>3</v>
       </c>
-      <c r="C298" t="s">
+      <c r="C298" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D298" t="str">
@@ -9958,14 +9962,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>3</v>
       </c>
       <c r="B299" t="s">
         <v>3</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C299" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D299" t="str">
@@ -9977,14 +9981,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>3</v>
       </c>
       <c r="B300" t="s">
         <v>3</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C300" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D300" t="str">
@@ -9996,14 +10000,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>3</v>
       </c>
       <c r="B301" t="s">
         <v>3</v>
       </c>
-      <c r="C301" t="s">
+      <c r="C301" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D301" t="str">
@@ -10015,14 +10019,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>3</v>
       </c>
       <c r="B302" t="s">
         <v>3</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C302" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D302" t="str">
@@ -10034,14 +10038,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>3</v>
       </c>
       <c r="B303" t="s">
         <v>3</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C303" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D303" t="str">
@@ -10053,14 +10057,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>4</v>
       </c>
       <c r="B304" t="s">
         <v>4</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C304" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D304" t="str">
@@ -10072,15 +10076,15 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>6</v>
       </c>
       <c r="B305" t="s">
         <v>4</v>
       </c>
-      <c r="C305" t="s">
-        <v>4</v>
+      <c r="C305" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="D305" t="str">
         <f t="shared" si="8"/>
@@ -10088,17 +10092,17 @@
       </c>
       <c r="E305" t="str">
         <f t="shared" si="9"/>
-        <v>Incorrect</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>3</v>
       </c>
       <c r="B306" t="s">
         <v>3</v>
       </c>
-      <c r="C306" t="s">
+      <c r="C306" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D306" t="str">
@@ -10110,14 +10114,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>3</v>
       </c>
       <c r="B307" t="s">
         <v>3</v>
       </c>
-      <c r="C307" t="s">
+      <c r="C307" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D307" t="str">
@@ -10129,14 +10133,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>3</v>
       </c>
       <c r="B308" t="s">
         <v>3</v>
       </c>
-      <c r="C308" t="s">
+      <c r="C308" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D308" t="str">
@@ -10148,15 +10152,15 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>5</v>
       </c>
       <c r="B309" t="s">
         <v>5</v>
       </c>
-      <c r="C309" t="s">
-        <v>4</v>
+      <c r="C309" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="D309" t="str">
         <f t="shared" si="8"/>
@@ -10164,17 +10168,17 @@
       </c>
       <c r="E309" t="str">
         <f t="shared" si="9"/>
-        <v>Incorrect</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>5</v>
       </c>
       <c r="B310" t="s">
         <v>5</v>
       </c>
-      <c r="C310" t="s">
+      <c r="C310" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D310" t="str">
@@ -10186,14 +10190,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>3</v>
       </c>
       <c r="B311" t="s">
         <v>3</v>
       </c>
-      <c r="C311" t="s">
+      <c r="C311" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D311" t="str">
@@ -10205,14 +10209,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>3</v>
       </c>
       <c r="B312" t="s">
         <v>3</v>
       </c>
-      <c r="C312" t="s">
+      <c r="C312" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D312" t="str">
@@ -10224,14 +10228,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>6</v>
       </c>
       <c r="B313" t="s">
         <v>4</v>
       </c>
-      <c r="C313" t="s">
+      <c r="C313" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D313" t="str">
@@ -10243,14 +10247,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>5</v>
       </c>
       <c r="B314" t="s">
         <v>5</v>
       </c>
-      <c r="C314" t="s">
+      <c r="C314" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D314" t="str">
@@ -10262,14 +10266,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>4</v>
       </c>
       <c r="B315" t="s">
         <v>3</v>
       </c>
-      <c r="C315" t="s">
+      <c r="C315" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D315" t="str">
@@ -10281,14 +10285,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>6</v>
       </c>
       <c r="B316" t="s">
         <v>4</v>
       </c>
-      <c r="C316" t="s">
+      <c r="C316" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D316" t="str">
@@ -10300,14 +10304,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>3</v>
       </c>
       <c r="B317" t="s">
         <v>3</v>
       </c>
-      <c r="C317" t="s">
+      <c r="C317" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D317" t="str">
@@ -10319,14 +10323,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>3</v>
       </c>
       <c r="B318" t="s">
         <v>3</v>
       </c>
-      <c r="C318" t="s">
+      <c r="C318" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D318" t="str">
@@ -10338,14 +10342,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>3</v>
       </c>
       <c r="B319" t="s">
         <v>3</v>
       </c>
-      <c r="C319" t="s">
+      <c r="C319" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D319" t="str">
@@ -10357,14 +10361,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>3</v>
       </c>
       <c r="B320" t="s">
         <v>3</v>
       </c>
-      <c r="C320" t="s">
+      <c r="C320" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D320" t="str">
@@ -10376,14 +10380,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>3</v>
       </c>
       <c r="B321" t="s">
         <v>3</v>
       </c>
-      <c r="C321" t="s">
+      <c r="C321" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D321" t="str">
@@ -10395,14 +10399,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>5</v>
       </c>
       <c r="B322" t="s">
         <v>4</v>
       </c>
-      <c r="C322" t="s">
+      <c r="C322" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D322" t="str">
@@ -10414,14 +10418,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>6</v>
       </c>
       <c r="B323" t="s">
         <v>4</v>
       </c>
-      <c r="C323" t="s">
+      <c r="C323" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D323" t="str">
@@ -10433,14 +10437,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>3</v>
       </c>
       <c r="B324" t="s">
         <v>3</v>
       </c>
-      <c r="C324" t="s">
+      <c r="C324" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D324" t="str">
@@ -10452,14 +10456,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>4</v>
       </c>
       <c r="B325" t="s">
         <v>3</v>
       </c>
-      <c r="C325" t="s">
+      <c r="C325" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D325" t="str">
@@ -10471,14 +10475,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>6</v>
       </c>
       <c r="B326" t="s">
         <v>4</v>
       </c>
-      <c r="C326" t="s">
+      <c r="C326" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D326" t="str">
@@ -10490,14 +10494,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>3</v>
       </c>
       <c r="B327" t="s">
         <v>3</v>
       </c>
-      <c r="C327" t="s">
+      <c r="C327" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D327" t="str">
@@ -10509,14 +10513,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>3</v>
       </c>
       <c r="B328" t="s">
         <v>3</v>
       </c>
-      <c r="C328" t="s">
+      <c r="C328" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D328" t="str">
@@ -10528,14 +10532,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>6</v>
       </c>
       <c r="B329" t="s">
         <v>6</v>
       </c>
-      <c r="C329" t="s">
+      <c r="C329" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D329" t="str">
@@ -10547,15 +10551,15 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>3</v>
       </c>
       <c r="B330" t="s">
         <v>6</v>
       </c>
-      <c r="C330" t="s">
-        <v>4</v>
+      <c r="C330" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="D330" t="str">
         <f t="shared" si="10"/>
@@ -10563,17 +10567,17 @@
       </c>
       <c r="E330" t="str">
         <f t="shared" si="11"/>
-        <v>Incorrect</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>5</v>
       </c>
       <c r="B331" t="s">
         <v>5</v>
       </c>
-      <c r="C331" t="s">
+      <c r="C331" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D331" t="str">
@@ -10585,14 +10589,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>3</v>
       </c>
       <c r="B332" t="s">
         <v>3</v>
       </c>
-      <c r="C332" t="s">
+      <c r="C332" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D332" t="str">
@@ -10604,14 +10608,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>3</v>
       </c>
       <c r="B333" t="s">
         <v>3</v>
       </c>
-      <c r="C333" t="s">
+      <c r="C333" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D333" t="str">
@@ -10623,14 +10627,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>3</v>
       </c>
       <c r="B334" t="s">
         <v>3</v>
       </c>
-      <c r="C334" t="s">
+      <c r="C334" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D334" t="str">
@@ -10642,14 +10646,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>3</v>
       </c>
       <c r="B335" t="s">
         <v>3</v>
       </c>
-      <c r="C335" t="s">
+      <c r="C335" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D335" t="str">
@@ -10661,14 +10665,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>3</v>
       </c>
       <c r="B336" t="s">
         <v>3</v>
       </c>
-      <c r="C336" t="s">
+      <c r="C336" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D336" t="str">
@@ -10680,14 +10684,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>3</v>
       </c>
       <c r="B337" t="s">
         <v>3</v>
       </c>
-      <c r="C337" t="s">
+      <c r="C337" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D337" t="str">
@@ -10699,14 +10703,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>3</v>
       </c>
       <c r="B338" t="s">
         <v>3</v>
       </c>
-      <c r="C338" t="s">
+      <c r="C338" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D338" t="str">
@@ -10718,14 +10722,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>6</v>
       </c>
       <c r="B339" t="s">
         <v>6</v>
       </c>
-      <c r="C339" t="s">
+      <c r="C339" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D339" t="str">
@@ -10737,14 +10741,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>5</v>
       </c>
       <c r="B340" t="s">
         <v>5</v>
       </c>
-      <c r="C340" t="s">
+      <c r="C340" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D340" t="str">
@@ -10756,14 +10760,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>6</v>
       </c>
       <c r="B341" t="s">
         <v>6</v>
       </c>
-      <c r="C341" t="s">
+      <c r="C341" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D341" t="str">
@@ -10775,14 +10779,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>3</v>
       </c>
       <c r="B342" t="s">
         <v>3</v>
       </c>
-      <c r="C342" t="s">
+      <c r="C342" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D342" t="str">
@@ -10794,14 +10798,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>3</v>
       </c>
       <c r="B343" t="s">
         <v>3</v>
       </c>
-      <c r="C343" t="s">
+      <c r="C343" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D343" t="str">
@@ -10813,14 +10817,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>3</v>
       </c>
       <c r="B344" t="s">
         <v>3</v>
       </c>
-      <c r="C344" t="s">
+      <c r="C344" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D344" t="str">
@@ -10832,14 +10836,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>6</v>
       </c>
       <c r="B345" t="s">
         <v>6</v>
       </c>
-      <c r="C345" t="s">
+      <c r="C345" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D345" t="str">
@@ -10851,14 +10855,14 @@
         <v>Correct</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>4</v>
       </c>
       <c r="B346" t="s">
         <v>6</v>
       </c>
-      <c r="C346" t="s">
+      <c r="C346" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D346" t="str">

--- a/Results Comparison Graphs.xlsx
+++ b/Results Comparison Graphs.xlsx
@@ -19,7 +19,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId2"/>
+    <pivotCache cacheId="8" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -163,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -171,9 +171,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3722,7 +3719,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="I2:M9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -4109,7 +4106,7 @@
   <dimension ref="A1:R346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C346"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4149,7 +4146,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="str">
@@ -4177,7 +4174,7 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="str">
@@ -4220,7 +4217,7 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="str">
@@ -4261,7 +4258,7 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="str">
@@ -4302,7 +4299,7 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="str">
@@ -4343,7 +4340,7 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="str">
@@ -4384,7 +4381,7 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="D8" t="str">
@@ -4419,7 +4416,7 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" t="s">
         <v>3</v>
       </c>
       <c r="D9" t="str">
@@ -4460,7 +4457,7 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" t="s">
         <v>3</v>
       </c>
       <c r="D10" t="str">
@@ -4488,7 +4485,7 @@
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" t="s">
         <v>3</v>
       </c>
       <c r="D11" t="str">
@@ -4516,7 +4513,7 @@
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" t="s">
         <v>3</v>
       </c>
       <c r="D12" t="str">
@@ -4535,7 +4532,7 @@
       <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" t="s">
         <v>3</v>
       </c>
       <c r="D13" t="str">
@@ -4554,7 +4551,7 @@
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" t="s">
         <v>3</v>
       </c>
       <c r="D14" t="str">
@@ -4573,7 +4570,7 @@
       <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" t="s">
         <v>3</v>
       </c>
       <c r="D15" t="str">
@@ -4592,7 +4589,7 @@
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="D16" t="str">
@@ -4611,7 +4608,7 @@
       <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" t="s">
         <v>3</v>
       </c>
       <c r="D17" t="str">
@@ -4630,7 +4627,7 @@
       <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" t="s">
         <v>3</v>
       </c>
       <c r="D18" t="str">
@@ -4649,7 +4646,7 @@
       <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" t="s">
         <v>3</v>
       </c>
       <c r="D19" t="str">
@@ -4668,7 +4665,7 @@
       <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" t="s">
         <v>3</v>
       </c>
       <c r="D20" t="str">
@@ -4687,7 +4684,7 @@
       <c r="B21" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" t="s">
         <v>3</v>
       </c>
       <c r="D21" t="str">
@@ -4706,7 +4703,7 @@
       <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" t="s">
         <v>3</v>
       </c>
       <c r="D22" t="str">
@@ -4725,7 +4722,7 @@
       <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" t="s">
         <v>3</v>
       </c>
       <c r="D23" t="str">
@@ -4744,7 +4741,7 @@
       <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" t="s">
         <v>3</v>
       </c>
       <c r="D24" t="str">
@@ -4763,7 +4760,7 @@
       <c r="B25" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" t="s">
         <v>3</v>
       </c>
       <c r="D25" t="str">
@@ -4782,7 +4779,7 @@
       <c r="B26" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" t="s">
         <v>3</v>
       </c>
       <c r="D26" t="str">
@@ -4801,7 +4798,7 @@
       <c r="B27" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" t="s">
         <v>3</v>
       </c>
       <c r="D27" t="str">
@@ -4820,7 +4817,7 @@
       <c r="B28" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" t="s">
         <v>3</v>
       </c>
       <c r="D28" t="str">
@@ -4839,7 +4836,7 @@
       <c r="B29" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" t="s">
         <v>3</v>
       </c>
       <c r="D29" t="str">
@@ -4858,7 +4855,7 @@
       <c r="B30" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" t="s">
         <v>3</v>
       </c>
       <c r="D30" t="str">
@@ -4877,7 +4874,7 @@
       <c r="B31" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" t="s">
         <v>3</v>
       </c>
       <c r="D31" t="str">
@@ -4896,7 +4893,7 @@
       <c r="B32" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" t="s">
         <v>3</v>
       </c>
       <c r="D32" t="str">
@@ -4915,7 +4912,7 @@
       <c r="B33" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" t="s">
         <v>3</v>
       </c>
       <c r="D33" t="str">
@@ -4934,7 +4931,7 @@
       <c r="B34" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" t="s">
         <v>3</v>
       </c>
       <c r="D34" t="str">
@@ -4953,7 +4950,7 @@
       <c r="B35" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" t="s">
         <v>3</v>
       </c>
       <c r="D35" t="str">
@@ -4972,7 +4969,7 @@
       <c r="B36" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" t="s">
         <v>3</v>
       </c>
       <c r="D36" t="str">
@@ -4991,7 +4988,7 @@
       <c r="B37" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" t="s">
         <v>3</v>
       </c>
       <c r="D37" t="str">
@@ -5010,7 +5007,7 @@
       <c r="B38" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" t="s">
         <v>3</v>
       </c>
       <c r="D38" t="str">
@@ -5029,7 +5026,7 @@
       <c r="B39" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" t="s">
         <v>3</v>
       </c>
       <c r="D39" t="str">
@@ -5048,7 +5045,7 @@
       <c r="B40" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" t="s">
         <v>3</v>
       </c>
       <c r="D40" t="str">
@@ -5067,7 +5064,7 @@
       <c r="B41" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" t="s">
         <v>3</v>
       </c>
       <c r="D41" t="str">
@@ -5086,7 +5083,7 @@
       <c r="B42" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" t="s">
         <v>3</v>
       </c>
       <c r="D42" t="str">
@@ -5105,7 +5102,7 @@
       <c r="B43" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" t="s">
         <v>3</v>
       </c>
       <c r="D43" t="str">
@@ -5124,7 +5121,7 @@
       <c r="B44" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" t="s">
         <v>3</v>
       </c>
       <c r="D44" t="str">
@@ -5143,7 +5140,7 @@
       <c r="B45" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" t="s">
         <v>3</v>
       </c>
       <c r="D45" t="str">
@@ -5162,7 +5159,7 @@
       <c r="B46" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" t="s">
         <v>3</v>
       </c>
       <c r="D46" t="str">
@@ -5181,7 +5178,7 @@
       <c r="B47" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" t="s">
         <v>3</v>
       </c>
       <c r="D47" t="str">
@@ -5200,7 +5197,7 @@
       <c r="B48" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" t="s">
         <v>3</v>
       </c>
       <c r="D48" t="str">
@@ -5219,7 +5216,7 @@
       <c r="B49" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" t="s">
         <v>3</v>
       </c>
       <c r="D49" t="str">
@@ -5238,7 +5235,7 @@
       <c r="B50" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" t="s">
         <v>3</v>
       </c>
       <c r="D50" t="str">
@@ -5257,7 +5254,7 @@
       <c r="B51" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" t="s">
         <v>3</v>
       </c>
       <c r="D51" t="str">
@@ -5276,7 +5273,7 @@
       <c r="B52" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" t="s">
         <v>3</v>
       </c>
       <c r="D52" t="str">
@@ -5295,7 +5292,7 @@
       <c r="B53" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" t="s">
         <v>4</v>
       </c>
       <c r="D53" t="str">
@@ -5314,7 +5311,7 @@
       <c r="B54" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" t="s">
         <v>3</v>
       </c>
       <c r="D54" t="str">
@@ -5333,7 +5330,7 @@
       <c r="B55" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" t="s">
         <v>4</v>
       </c>
       <c r="D55" t="str">
@@ -5352,7 +5349,7 @@
       <c r="B56" t="s">
         <v>3</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" t="s">
         <v>3</v>
       </c>
       <c r="D56" t="str">
@@ -5371,7 +5368,7 @@
       <c r="B57" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" t="s">
         <v>3</v>
       </c>
       <c r="D57" t="str">
@@ -5390,7 +5387,7 @@
       <c r="B58" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" t="s">
         <v>4</v>
       </c>
       <c r="D58" t="str">
@@ -5409,7 +5406,7 @@
       <c r="B59" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" t="s">
         <v>3</v>
       </c>
       <c r="D59" t="str">
@@ -5428,7 +5425,7 @@
       <c r="B60" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" t="s">
         <v>4</v>
       </c>
       <c r="D60" t="str">
@@ -5447,7 +5444,7 @@
       <c r="B61" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" t="s">
         <v>4</v>
       </c>
       <c r="D61" t="str">
@@ -5466,7 +5463,7 @@
       <c r="B62" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" t="s">
         <v>3</v>
       </c>
       <c r="D62" t="str">
@@ -5485,7 +5482,7 @@
       <c r="B63" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" t="s">
         <v>3</v>
       </c>
       <c r="D63" t="str">
@@ -5504,7 +5501,7 @@
       <c r="B64" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" t="s">
         <v>3</v>
       </c>
       <c r="D64" t="str">
@@ -5523,7 +5520,7 @@
       <c r="B65" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" t="s">
         <v>4</v>
       </c>
       <c r="D65" t="str">
@@ -5542,7 +5539,7 @@
       <c r="B66" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" t="s">
         <v>3</v>
       </c>
       <c r="D66" t="str">
@@ -5561,7 +5558,7 @@
       <c r="B67" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" t="s">
         <v>3</v>
       </c>
       <c r="D67" t="str">
@@ -5580,7 +5577,7 @@
       <c r="B68" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" t="s">
         <v>3</v>
       </c>
       <c r="D68" t="str">
@@ -5599,7 +5596,7 @@
       <c r="B69" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" t="s">
         <v>3</v>
       </c>
       <c r="D69" t="str">
@@ -5618,7 +5615,7 @@
       <c r="B70" t="s">
         <v>3</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" t="s">
         <v>3</v>
       </c>
       <c r="D70" t="str">
@@ -5637,7 +5634,7 @@
       <c r="B71" t="s">
         <v>4</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" t="s">
         <v>4</v>
       </c>
       <c r="D71" t="str">
@@ -5656,7 +5653,7 @@
       <c r="B72" t="s">
         <v>4</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" t="s">
         <v>4</v>
       </c>
       <c r="D72" t="str">
@@ -5675,7 +5672,7 @@
       <c r="B73" t="s">
         <v>3</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" t="s">
         <v>3</v>
       </c>
       <c r="D73" t="str">
@@ -5694,7 +5691,7 @@
       <c r="B74" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" t="s">
         <v>3</v>
       </c>
       <c r="D74" t="str">
@@ -5713,7 +5710,7 @@
       <c r="B75" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" t="s">
         <v>3</v>
       </c>
       <c r="D75" t="str">
@@ -5732,7 +5729,7 @@
       <c r="B76" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" t="s">
         <v>3</v>
       </c>
       <c r="D76" t="str">
@@ -5751,7 +5748,7 @@
       <c r="B77" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" t="s">
         <v>3</v>
       </c>
       <c r="D77" t="str">
@@ -5770,7 +5767,7 @@
       <c r="B78" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" t="s">
         <v>3</v>
       </c>
       <c r="D78" t="str">
@@ -5789,7 +5786,7 @@
       <c r="B79" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" t="s">
         <v>3</v>
       </c>
       <c r="D79" t="str">
@@ -5808,7 +5805,7 @@
       <c r="B80" t="s">
         <v>3</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" t="s">
         <v>3</v>
       </c>
       <c r="D80" t="str">
@@ -5827,7 +5824,7 @@
       <c r="B81" t="s">
         <v>3</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" t="s">
         <v>3</v>
       </c>
       <c r="D81" t="str">
@@ -5846,7 +5843,7 @@
       <c r="B82" t="s">
         <v>3</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" t="s">
         <v>3</v>
       </c>
       <c r="D82" t="str">
@@ -5865,7 +5862,7 @@
       <c r="B83" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" t="s">
         <v>3</v>
       </c>
       <c r="D83" t="str">
@@ -5884,7 +5881,7 @@
       <c r="B84" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" t="s">
         <v>3</v>
       </c>
       <c r="D84" t="str">
@@ -5903,7 +5900,7 @@
       <c r="B85" t="s">
         <v>4</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" t="s">
         <v>4</v>
       </c>
       <c r="D85" t="str">
@@ -5922,7 +5919,7 @@
       <c r="B86" t="s">
         <v>3</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" t="s">
         <v>3</v>
       </c>
       <c r="D86" t="str">
@@ -5941,7 +5938,7 @@
       <c r="B87" t="s">
         <v>3</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" t="s">
         <v>4</v>
       </c>
       <c r="D87" t="str">
@@ -5960,7 +5957,7 @@
       <c r="B88" t="s">
         <v>3</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" t="s">
         <v>3</v>
       </c>
       <c r="D88" t="str">
@@ -5979,7 +5976,7 @@
       <c r="B89" t="s">
         <v>3</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" t="s">
         <v>3</v>
       </c>
       <c r="D89" t="str">
@@ -5998,7 +5995,7 @@
       <c r="B90" t="s">
         <v>3</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" t="s">
         <v>3</v>
       </c>
       <c r="D90" t="str">
@@ -6017,7 +6014,7 @@
       <c r="B91" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" t="s">
         <v>4</v>
       </c>
       <c r="D91" t="str">
@@ -6036,7 +6033,7 @@
       <c r="B92" t="s">
         <v>3</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" t="s">
         <v>3</v>
       </c>
       <c r="D92" t="str">
@@ -6055,7 +6052,7 @@
       <c r="B93" t="s">
         <v>3</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" t="s">
         <v>4</v>
       </c>
       <c r="D93" t="str">
@@ -6074,7 +6071,7 @@
       <c r="B94" t="s">
         <v>3</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" t="s">
         <v>3</v>
       </c>
       <c r="D94" t="str">
@@ -6093,7 +6090,7 @@
       <c r="B95" t="s">
         <v>3</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" t="s">
         <v>3</v>
       </c>
       <c r="D95" t="str">
@@ -6112,7 +6109,7 @@
       <c r="B96" t="s">
         <v>3</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" t="s">
         <v>3</v>
       </c>
       <c r="D96" t="str">
@@ -6131,7 +6128,7 @@
       <c r="B97" t="s">
         <v>3</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" t="s">
         <v>3</v>
       </c>
       <c r="D97" t="str">
@@ -6150,7 +6147,7 @@
       <c r="B98" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" t="s">
         <v>3</v>
       </c>
       <c r="D98" t="str">
@@ -6169,7 +6166,7 @@
       <c r="B99" t="s">
         <v>3</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" t="s">
         <v>3</v>
       </c>
       <c r="D99" t="str">
@@ -6188,7 +6185,7 @@
       <c r="B100" t="s">
         <v>3</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" t="s">
         <v>3</v>
       </c>
       <c r="D100" t="str">
@@ -6207,7 +6204,7 @@
       <c r="B101" t="s">
         <v>3</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" t="s">
         <v>3</v>
       </c>
       <c r="D101" t="str">
@@ -6226,7 +6223,7 @@
       <c r="B102" t="s">
         <v>3</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" t="s">
         <v>3</v>
       </c>
       <c r="D102" t="str">
@@ -6245,7 +6242,7 @@
       <c r="B103" t="s">
         <v>3</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" t="s">
         <v>3</v>
       </c>
       <c r="D103" t="str">
@@ -6264,7 +6261,7 @@
       <c r="B104" t="s">
         <v>3</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C104" t="s">
         <v>3</v>
       </c>
       <c r="D104" t="str">
@@ -6283,7 +6280,7 @@
       <c r="B105" t="s">
         <v>3</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" t="s">
         <v>3</v>
       </c>
       <c r="D105" t="str">
@@ -6302,7 +6299,7 @@
       <c r="B106" t="s">
         <v>3</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" t="s">
         <v>3</v>
       </c>
       <c r="D106" t="str">
@@ -6321,7 +6318,7 @@
       <c r="B107" t="s">
         <v>3</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C107" t="s">
         <v>3</v>
       </c>
       <c r="D107" t="str">
@@ -6340,7 +6337,7 @@
       <c r="B108" t="s">
         <v>3</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" t="s">
         <v>3</v>
       </c>
       <c r="D108" t="str">
@@ -6359,7 +6356,7 @@
       <c r="B109" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" t="s">
         <v>3</v>
       </c>
       <c r="D109" t="str">
@@ -6378,7 +6375,7 @@
       <c r="B110" t="s">
         <v>3</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" t="s">
         <v>3</v>
       </c>
       <c r="D110" t="str">
@@ -6397,7 +6394,7 @@
       <c r="B111" t="s">
         <v>3</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" t="s">
         <v>3</v>
       </c>
       <c r="D111" t="str">
@@ -6416,7 +6413,7 @@
       <c r="B112" t="s">
         <v>3</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" t="s">
         <v>3</v>
       </c>
       <c r="D112" t="str">
@@ -6435,7 +6432,7 @@
       <c r="B113" t="s">
         <v>3</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C113" t="s">
         <v>3</v>
       </c>
       <c r="D113" t="str">
@@ -6454,7 +6451,7 @@
       <c r="B114" t="s">
         <v>3</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" t="s">
         <v>3</v>
       </c>
       <c r="D114" t="str">
@@ -6473,7 +6470,7 @@
       <c r="B115" t="s">
         <v>3</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" t="s">
         <v>3</v>
       </c>
       <c r="D115" t="str">
@@ -6492,7 +6489,7 @@
       <c r="B116" t="s">
         <v>4</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C116" t="s">
         <v>3</v>
       </c>
       <c r="D116" t="str">
@@ -6511,7 +6508,7 @@
       <c r="B117" t="s">
         <v>3</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" t="s">
         <v>3</v>
       </c>
       <c r="D117" t="str">
@@ -6530,7 +6527,7 @@
       <c r="B118" t="s">
         <v>3</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" t="s">
         <v>3</v>
       </c>
       <c r="D118" t="str">
@@ -6549,7 +6546,7 @@
       <c r="B119" t="s">
         <v>3</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C119" t="s">
         <v>3</v>
       </c>
       <c r="D119" t="str">
@@ -6568,7 +6565,7 @@
       <c r="B120" t="s">
         <v>3</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C120" t="s">
         <v>3</v>
       </c>
       <c r="D120" t="str">
@@ -6587,7 +6584,7 @@
       <c r="B121" t="s">
         <v>4</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="C121" t="s">
         <v>4</v>
       </c>
       <c r="D121" t="str">
@@ -6606,7 +6603,7 @@
       <c r="B122" t="s">
         <v>3</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" t="s">
         <v>3</v>
       </c>
       <c r="D122" t="str">
@@ -6625,7 +6622,7 @@
       <c r="B123" t="s">
         <v>3</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C123" t="s">
         <v>3</v>
       </c>
       <c r="D123" t="str">
@@ -6644,8 +6641,8 @@
       <c r="B124" t="s">
         <v>3</v>
       </c>
-      <c r="C124" s="5" t="s">
-        <v>4</v>
+      <c r="C124" t="s">
+        <v>3</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="2"/>
@@ -6653,7 +6650,7 @@
       </c>
       <c r="E124" t="str">
         <f t="shared" si="3"/>
-        <v>Correct</v>
+        <v>Incorrect</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -6663,7 +6660,7 @@
       <c r="B125" t="s">
         <v>4</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="C125" t="s">
         <v>4</v>
       </c>
       <c r="D125" t="str">
@@ -6682,7 +6679,7 @@
       <c r="B126" t="s">
         <v>4</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="C126" t="s">
         <v>4</v>
       </c>
       <c r="D126" t="str">
@@ -6701,7 +6698,7 @@
       <c r="B127" t="s">
         <v>3</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="C127" t="s">
         <v>3</v>
       </c>
       <c r="D127" t="str">
@@ -6720,7 +6717,7 @@
       <c r="B128" t="s">
         <v>3</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="C128" t="s">
         <v>3</v>
       </c>
       <c r="D128" t="str">
@@ -6739,7 +6736,7 @@
       <c r="B129" t="s">
         <v>3</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C129" t="s">
         <v>4</v>
       </c>
       <c r="D129" t="str">
@@ -6758,7 +6755,7 @@
       <c r="B130" t="s">
         <v>3</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="C130" t="s">
         <v>3</v>
       </c>
       <c r="D130" t="str">
@@ -6777,7 +6774,7 @@
       <c r="B131" t="s">
         <v>3</v>
       </c>
-      <c r="C131" s="5" t="s">
+      <c r="C131" t="s">
         <v>3</v>
       </c>
       <c r="D131" t="str">
@@ -6796,7 +6793,7 @@
       <c r="B132" t="s">
         <v>3</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="C132" t="s">
         <v>3</v>
       </c>
       <c r="D132" t="str">
@@ -6815,7 +6812,7 @@
       <c r="B133" t="s">
         <v>3</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="C133" t="s">
         <v>4</v>
       </c>
       <c r="D133" t="str">
@@ -6834,7 +6831,7 @@
       <c r="B134" t="s">
         <v>4</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C134" t="s">
         <v>4</v>
       </c>
       <c r="D134" t="str">
@@ -6853,7 +6850,7 @@
       <c r="B135" t="s">
         <v>4</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C135" t="s">
         <v>4</v>
       </c>
       <c r="D135" t="str">
@@ -6872,7 +6869,7 @@
       <c r="B136" t="s">
         <v>3</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="C136" t="s">
         <v>3</v>
       </c>
       <c r="D136" t="str">
@@ -6891,7 +6888,7 @@
       <c r="B137" t="s">
         <v>3</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="C137" t="s">
         <v>3</v>
       </c>
       <c r="D137" t="str">
@@ -6910,7 +6907,7 @@
       <c r="B138" t="s">
         <v>3</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="C138" t="s">
         <v>3</v>
       </c>
       <c r="D138" t="str">
@@ -6929,7 +6926,7 @@
       <c r="B139" t="s">
         <v>3</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="C139" t="s">
         <v>3</v>
       </c>
       <c r="D139" t="str">
@@ -6948,7 +6945,7 @@
       <c r="B140" t="s">
         <v>4</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="C140" t="s">
         <v>4</v>
       </c>
       <c r="D140" t="str">
@@ -6967,7 +6964,7 @@
       <c r="B141" t="s">
         <v>4</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="C141" t="s">
         <v>3</v>
       </c>
       <c r="D141" t="str">
@@ -6986,7 +6983,7 @@
       <c r="B142" t="s">
         <v>4</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="C142" t="s">
         <v>4</v>
       </c>
       <c r="D142" t="str">
@@ -7005,7 +7002,7 @@
       <c r="B143" t="s">
         <v>4</v>
       </c>
-      <c r="C143" s="5" t="s">
+      <c r="C143" t="s">
         <v>4</v>
       </c>
       <c r="D143" t="str">
@@ -7024,7 +7021,7 @@
       <c r="B144" t="s">
         <v>3</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="C144" t="s">
         <v>3</v>
       </c>
       <c r="D144" t="str">
@@ -7043,7 +7040,7 @@
       <c r="B145" t="s">
         <v>3</v>
       </c>
-      <c r="C145" s="5" t="s">
+      <c r="C145" t="s">
         <v>3</v>
       </c>
       <c r="D145" t="str">
@@ -7062,7 +7059,7 @@
       <c r="B146" t="s">
         <v>4</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="C146" t="s">
         <v>3</v>
       </c>
       <c r="D146" t="str">
@@ -7081,7 +7078,7 @@
       <c r="B147" t="s">
         <v>4</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="C147" t="s">
         <v>4</v>
       </c>
       <c r="D147" t="str">
@@ -7100,7 +7097,7 @@
       <c r="B148" t="s">
         <v>4</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="C148" t="s">
         <v>4</v>
       </c>
       <c r="D148" t="str">
@@ -7119,7 +7116,7 @@
       <c r="B149" t="s">
         <v>3</v>
       </c>
-      <c r="C149" s="5" t="s">
+      <c r="C149" t="s">
         <v>3</v>
       </c>
       <c r="D149" t="str">
@@ -7138,7 +7135,7 @@
       <c r="B150" t="s">
         <v>3</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="C150" t="s">
         <v>3</v>
       </c>
       <c r="D150" t="str">
@@ -7157,7 +7154,7 @@
       <c r="B151" t="s">
         <v>3</v>
       </c>
-      <c r="C151" s="5" t="s">
+      <c r="C151" t="s">
         <v>3</v>
       </c>
       <c r="D151" t="str">
@@ -7176,7 +7173,7 @@
       <c r="B152" t="s">
         <v>3</v>
       </c>
-      <c r="C152" s="5" t="s">
+      <c r="C152" t="s">
         <v>3</v>
       </c>
       <c r="D152" t="str">
@@ -7195,7 +7192,7 @@
       <c r="B153" t="s">
         <v>3</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="C153" t="s">
         <v>3</v>
       </c>
       <c r="D153" t="str">
@@ -7214,7 +7211,7 @@
       <c r="B154" t="s">
         <v>3</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="C154" t="s">
         <v>3</v>
       </c>
       <c r="D154" t="str">
@@ -7233,7 +7230,7 @@
       <c r="B155" t="s">
         <v>3</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="C155" t="s">
         <v>3</v>
       </c>
       <c r="D155" t="str">
@@ -7252,7 +7249,7 @@
       <c r="B156" t="s">
         <v>4</v>
       </c>
-      <c r="C156" s="5" t="s">
+      <c r="C156" t="s">
         <v>4</v>
       </c>
       <c r="D156" t="str">
@@ -7271,7 +7268,7 @@
       <c r="B157" t="s">
         <v>4</v>
       </c>
-      <c r="C157" s="5" t="s">
+      <c r="C157" t="s">
         <v>4</v>
       </c>
       <c r="D157" t="str">
@@ -7290,7 +7287,7 @@
       <c r="B158" t="s">
         <v>4</v>
       </c>
-      <c r="C158" s="5" t="s">
+      <c r="C158" t="s">
         <v>4</v>
       </c>
       <c r="D158" t="str">
@@ -7309,7 +7306,7 @@
       <c r="B159" t="s">
         <v>3</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="C159" t="s">
         <v>3</v>
       </c>
       <c r="D159" t="str">
@@ -7328,7 +7325,7 @@
       <c r="B160" t="s">
         <v>3</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="C160" t="s">
         <v>3</v>
       </c>
       <c r="D160" t="str">
@@ -7347,7 +7344,7 @@
       <c r="B161" t="s">
         <v>3</v>
       </c>
-      <c r="C161" s="5" t="s">
+      <c r="C161" t="s">
         <v>3</v>
       </c>
       <c r="D161" t="str">
@@ -7366,7 +7363,7 @@
       <c r="B162" t="s">
         <v>3</v>
       </c>
-      <c r="C162" s="5" t="s">
+      <c r="C162" t="s">
         <v>3</v>
       </c>
       <c r="D162" t="str">
@@ -7385,7 +7382,7 @@
       <c r="B163" t="s">
         <v>3</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="C163" t="s">
         <v>3</v>
       </c>
       <c r="D163" t="str">
@@ -7404,7 +7401,7 @@
       <c r="B164" t="s">
         <v>4</v>
       </c>
-      <c r="C164" s="5" t="s">
+      <c r="C164" t="s">
         <v>4</v>
       </c>
       <c r="D164" t="str">
@@ -7423,7 +7420,7 @@
       <c r="B165" t="s">
         <v>4</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="C165" t="s">
         <v>4</v>
       </c>
       <c r="D165" t="str">
@@ -7442,7 +7439,7 @@
       <c r="B166" t="s">
         <v>3</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C166" t="s">
         <v>3</v>
       </c>
       <c r="D166" t="str">
@@ -7461,7 +7458,7 @@
       <c r="B167" t="s">
         <v>3</v>
       </c>
-      <c r="C167" s="5" t="s">
+      <c r="C167" t="s">
         <v>3</v>
       </c>
       <c r="D167" t="str">
@@ -7480,7 +7477,7 @@
       <c r="B168" t="s">
         <v>4</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="C168" t="s">
         <v>4</v>
       </c>
       <c r="D168" t="str">
@@ -7499,7 +7496,7 @@
       <c r="B169" t="s">
         <v>4</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="C169" t="s">
         <v>4</v>
       </c>
       <c r="D169" t="str">
@@ -7518,7 +7515,7 @@
       <c r="B170" t="s">
         <v>4</v>
       </c>
-      <c r="C170" s="5" t="s">
+      <c r="C170" t="s">
         <v>4</v>
       </c>
       <c r="D170" t="str">
@@ -7537,7 +7534,7 @@
       <c r="B171" t="s">
         <v>3</v>
       </c>
-      <c r="C171" s="5" t="s">
+      <c r="C171" t="s">
         <v>3</v>
       </c>
       <c r="D171" t="str">
@@ -7556,7 +7553,7 @@
       <c r="B172" t="s">
         <v>3</v>
       </c>
-      <c r="C172" s="5" t="s">
+      <c r="C172" t="s">
         <v>3</v>
       </c>
       <c r="D172" t="str">
@@ -7575,7 +7572,7 @@
       <c r="B173" t="s">
         <v>3</v>
       </c>
-      <c r="C173" s="5" t="s">
+      <c r="C173" t="s">
         <v>3</v>
       </c>
       <c r="D173" t="str">
@@ -7594,7 +7591,7 @@
       <c r="B174" t="s">
         <v>3</v>
       </c>
-      <c r="C174" s="5" t="s">
+      <c r="C174" t="s">
         <v>4</v>
       </c>
       <c r="D174" t="str">
@@ -7613,7 +7610,7 @@
       <c r="B175" t="s">
         <v>3</v>
       </c>
-      <c r="C175" s="5" t="s">
+      <c r="C175" t="s">
         <v>3</v>
       </c>
       <c r="D175" t="str">
@@ -7632,7 +7629,7 @@
       <c r="B176" t="s">
         <v>3</v>
       </c>
-      <c r="C176" s="5" t="s">
+      <c r="C176" t="s">
         <v>3</v>
       </c>
       <c r="D176" t="str">
@@ -7651,7 +7648,7 @@
       <c r="B177" t="s">
         <v>3</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="C177" t="s">
         <v>3</v>
       </c>
       <c r="D177" t="str">
@@ -7670,7 +7667,7 @@
       <c r="B178" t="s">
         <v>3</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="C178" t="s">
         <v>3</v>
       </c>
       <c r="D178" t="str">
@@ -7689,7 +7686,7 @@
       <c r="B179" t="s">
         <v>4</v>
       </c>
-      <c r="C179" s="5" t="s">
+      <c r="C179" t="s">
         <v>4</v>
       </c>
       <c r="D179" t="str">
@@ -7708,7 +7705,7 @@
       <c r="B180" t="s">
         <v>4</v>
       </c>
-      <c r="C180" s="5" t="s">
+      <c r="C180" t="s">
         <v>4</v>
       </c>
       <c r="D180" t="str">
@@ -7727,7 +7724,7 @@
       <c r="B181" t="s">
         <v>3</v>
       </c>
-      <c r="C181" s="5" t="s">
+      <c r="C181" t="s">
         <v>3</v>
       </c>
       <c r="D181" t="str">
@@ -7746,7 +7743,7 @@
       <c r="B182" t="s">
         <v>4</v>
       </c>
-      <c r="C182" s="5" t="s">
+      <c r="C182" t="s">
         <v>4</v>
       </c>
       <c r="D182" t="str">
@@ -7765,7 +7762,7 @@
       <c r="B183" t="s">
         <v>3</v>
       </c>
-      <c r="C183" s="5" t="s">
+      <c r="C183" t="s">
         <v>3</v>
       </c>
       <c r="D183" t="str">
@@ -7784,7 +7781,7 @@
       <c r="B184" t="s">
         <v>4</v>
       </c>
-      <c r="C184" s="5" t="s">
+      <c r="C184" t="s">
         <v>4</v>
       </c>
       <c r="D184" t="str">
@@ -7803,7 +7800,7 @@
       <c r="B185" t="s">
         <v>3</v>
       </c>
-      <c r="C185" s="5" t="s">
+      <c r="C185" t="s">
         <v>3</v>
       </c>
       <c r="D185" t="str">
@@ -7822,7 +7819,7 @@
       <c r="B186" t="s">
         <v>3</v>
       </c>
-      <c r="C186" s="5" t="s">
+      <c r="C186" t="s">
         <v>3</v>
       </c>
       <c r="D186" t="str">
@@ -7841,7 +7838,7 @@
       <c r="B187" t="s">
         <v>3</v>
       </c>
-      <c r="C187" s="5" t="s">
+      <c r="C187" t="s">
         <v>3</v>
       </c>
       <c r="D187" t="str">
@@ -7860,7 +7857,7 @@
       <c r="B188" t="s">
         <v>4</v>
       </c>
-      <c r="C188" s="5" t="s">
+      <c r="C188" t="s">
         <v>4</v>
       </c>
       <c r="D188" t="str">
@@ -7879,7 +7876,7 @@
       <c r="B189" t="s">
         <v>3</v>
       </c>
-      <c r="C189" s="5" t="s">
+      <c r="C189" t="s">
         <v>4</v>
       </c>
       <c r="D189" t="str">
@@ -7898,7 +7895,7 @@
       <c r="B190" t="s">
         <v>3</v>
       </c>
-      <c r="C190" s="5" t="s">
+      <c r="C190" t="s">
         <v>3</v>
       </c>
       <c r="D190" t="str">
@@ -7917,7 +7914,7 @@
       <c r="B191" t="s">
         <v>4</v>
       </c>
-      <c r="C191" s="5" t="s">
+      <c r="C191" t="s">
         <v>4</v>
       </c>
       <c r="D191" t="str">
@@ -7936,7 +7933,7 @@
       <c r="B192" t="s">
         <v>4</v>
       </c>
-      <c r="C192" s="5" t="s">
+      <c r="C192" t="s">
         <v>4</v>
       </c>
       <c r="D192" t="str">
@@ -7955,7 +7952,7 @@
       <c r="B193" t="s">
         <v>3</v>
       </c>
-      <c r="C193" s="5" t="s">
+      <c r="C193" t="s">
         <v>4</v>
       </c>
       <c r="D193" t="str">
@@ -7974,7 +7971,7 @@
       <c r="B194" t="s">
         <v>3</v>
       </c>
-      <c r="C194" s="5" t="s">
+      <c r="C194" t="s">
         <v>3</v>
       </c>
       <c r="D194" t="str">
@@ -7993,7 +7990,7 @@
       <c r="B195" t="s">
         <v>3</v>
       </c>
-      <c r="C195" s="5" t="s">
+      <c r="C195" t="s">
         <v>3</v>
       </c>
       <c r="D195" t="str">
@@ -8012,7 +8009,7 @@
       <c r="B196" t="s">
         <v>4</v>
       </c>
-      <c r="C196" s="5" t="s">
+      <c r="C196" t="s">
         <v>4</v>
       </c>
       <c r="D196" t="str">
@@ -8031,7 +8028,7 @@
       <c r="B197" t="s">
         <v>3</v>
       </c>
-      <c r="C197" s="5" t="s">
+      <c r="C197" t="s">
         <v>3</v>
       </c>
       <c r="D197" t="str">
@@ -8050,7 +8047,7 @@
       <c r="B198" t="s">
         <v>4</v>
       </c>
-      <c r="C198" s="5" t="s">
+      <c r="C198" t="s">
         <v>4</v>
       </c>
       <c r="D198" t="str">
@@ -8069,7 +8066,7 @@
       <c r="B199" t="s">
         <v>4</v>
       </c>
-      <c r="C199" s="5" t="s">
+      <c r="C199" t="s">
         <v>4</v>
       </c>
       <c r="D199" t="str">
@@ -8088,7 +8085,7 @@
       <c r="B200" t="s">
         <v>4</v>
       </c>
-      <c r="C200" s="5" t="s">
+      <c r="C200" t="s">
         <v>4</v>
       </c>
       <c r="D200" t="str">
@@ -8107,7 +8104,7 @@
       <c r="B201" t="s">
         <v>4</v>
       </c>
-      <c r="C201" s="5" t="s">
+      <c r="C201" t="s">
         <v>4</v>
       </c>
       <c r="D201" t="str">
@@ -8126,7 +8123,7 @@
       <c r="B202" t="s">
         <v>3</v>
       </c>
-      <c r="C202" s="5" t="s">
+      <c r="C202" t="s">
         <v>3</v>
       </c>
       <c r="D202" t="str">
@@ -8145,7 +8142,7 @@
       <c r="B203" t="s">
         <v>3</v>
       </c>
-      <c r="C203" s="5" t="s">
+      <c r="C203" t="s">
         <v>3</v>
       </c>
       <c r="D203" t="str">
@@ -8164,7 +8161,7 @@
       <c r="B204" t="s">
         <v>3</v>
       </c>
-      <c r="C204" s="5" t="s">
+      <c r="C204" t="s">
         <v>3</v>
       </c>
       <c r="D204" t="str">
@@ -8183,7 +8180,7 @@
       <c r="B205" t="s">
         <v>4</v>
       </c>
-      <c r="C205" s="5" t="s">
+      <c r="C205" t="s">
         <v>4</v>
       </c>
       <c r="D205" t="str">
@@ -8202,7 +8199,7 @@
       <c r="B206" t="s">
         <v>3</v>
       </c>
-      <c r="C206" s="5" t="s">
+      <c r="C206" t="s">
         <v>3</v>
       </c>
       <c r="D206" t="str">
@@ -8221,7 +8218,7 @@
       <c r="B207" t="s">
         <v>3</v>
       </c>
-      <c r="C207" s="5" t="s">
+      <c r="C207" t="s">
         <v>3</v>
       </c>
       <c r="D207" t="str">
@@ -8240,7 +8237,7 @@
       <c r="B208" t="s">
         <v>4</v>
       </c>
-      <c r="C208" s="5" t="s">
+      <c r="C208" t="s">
         <v>4</v>
       </c>
       <c r="D208" t="str">
@@ -8259,7 +8256,7 @@
       <c r="B209" t="s">
         <v>4</v>
       </c>
-      <c r="C209" s="5" t="s">
+      <c r="C209" t="s">
         <v>4</v>
       </c>
       <c r="D209" t="str">
@@ -8278,7 +8275,7 @@
       <c r="B210" t="s">
         <v>3</v>
       </c>
-      <c r="C210" s="5" t="s">
+      <c r="C210" t="s">
         <v>3</v>
       </c>
       <c r="D210" t="str">
@@ -8297,7 +8294,7 @@
       <c r="B211" t="s">
         <v>4</v>
       </c>
-      <c r="C211" s="5" t="s">
+      <c r="C211" t="s">
         <v>4</v>
       </c>
       <c r="D211" t="str">
@@ -8316,7 +8313,7 @@
       <c r="B212" t="s">
         <v>3</v>
       </c>
-      <c r="C212" s="5" t="s">
+      <c r="C212" t="s">
         <v>3</v>
       </c>
       <c r="D212" t="str">
@@ -8335,7 +8332,7 @@
       <c r="B213" t="s">
         <v>4</v>
       </c>
-      <c r="C213" s="5" t="s">
+      <c r="C213" t="s">
         <v>5</v>
       </c>
       <c r="D213" t="str">
@@ -8354,7 +8351,7 @@
       <c r="B214" t="s">
         <v>3</v>
       </c>
-      <c r="C214" s="5" t="s">
+      <c r="C214" t="s">
         <v>3</v>
       </c>
       <c r="D214" t="str">
@@ -8373,7 +8370,7 @@
       <c r="B215" t="s">
         <v>3</v>
       </c>
-      <c r="C215" s="5" t="s">
+      <c r="C215" t="s">
         <v>3</v>
       </c>
       <c r="D215" t="str">
@@ -8392,7 +8389,7 @@
       <c r="B216" t="s">
         <v>3</v>
       </c>
-      <c r="C216" s="5" t="s">
+      <c r="C216" t="s">
         <v>3</v>
       </c>
       <c r="D216" t="str">
@@ -8411,7 +8408,7 @@
       <c r="B217" t="s">
         <v>3</v>
       </c>
-      <c r="C217" s="5" t="s">
+      <c r="C217" t="s">
         <v>3</v>
       </c>
       <c r="D217" t="str">
@@ -8430,7 +8427,7 @@
       <c r="B218" t="s">
         <v>4</v>
       </c>
-      <c r="C218" s="5" t="s">
+      <c r="C218" t="s">
         <v>4</v>
       </c>
       <c r="D218" t="str">
@@ -8449,7 +8446,7 @@
       <c r="B219" t="s">
         <v>3</v>
       </c>
-      <c r="C219" s="5" t="s">
+      <c r="C219" t="s">
         <v>3</v>
       </c>
       <c r="D219" t="str">
@@ -8468,7 +8465,7 @@
       <c r="B220" t="s">
         <v>3</v>
       </c>
-      <c r="C220" s="5" t="s">
+      <c r="C220" t="s">
         <v>3</v>
       </c>
       <c r="D220" t="str">
@@ -8487,7 +8484,7 @@
       <c r="B221" t="s">
         <v>4</v>
       </c>
-      <c r="C221" s="5" t="s">
+      <c r="C221" t="s">
         <v>4</v>
       </c>
       <c r="D221" t="str">
@@ -8506,7 +8503,7 @@
       <c r="B222" t="s">
         <v>4</v>
       </c>
-      <c r="C222" s="5" t="s">
+      <c r="C222" t="s">
         <v>4</v>
       </c>
       <c r="D222" t="str">
@@ -8525,7 +8522,7 @@
       <c r="B223" t="s">
         <v>3</v>
       </c>
-      <c r="C223" s="5" t="s">
+      <c r="C223" t="s">
         <v>3</v>
       </c>
       <c r="D223" t="str">
@@ -8544,7 +8541,7 @@
       <c r="B224" t="s">
         <v>3</v>
       </c>
-      <c r="C224" s="5" t="s">
+      <c r="C224" t="s">
         <v>3</v>
       </c>
       <c r="D224" t="str">
@@ -8563,7 +8560,7 @@
       <c r="B225" t="s">
         <v>3</v>
       </c>
-      <c r="C225" s="5" t="s">
+      <c r="C225" t="s">
         <v>3</v>
       </c>
       <c r="D225" t="str">
@@ -8582,7 +8579,7 @@
       <c r="B226" t="s">
         <v>4</v>
       </c>
-      <c r="C226" s="5" t="s">
+      <c r="C226" t="s">
         <v>5</v>
       </c>
       <c r="D226" t="str">
@@ -8601,7 +8598,7 @@
       <c r="B227" t="s">
         <v>4</v>
       </c>
-      <c r="C227" s="5" t="s">
+      <c r="C227" t="s">
         <v>5</v>
       </c>
       <c r="D227" t="str">
@@ -8620,7 +8617,7 @@
       <c r="B228" t="s">
         <v>3</v>
       </c>
-      <c r="C228" s="5" t="s">
+      <c r="C228" t="s">
         <v>3</v>
       </c>
       <c r="D228" t="str">
@@ -8639,7 +8636,7 @@
       <c r="B229" t="s">
         <v>3</v>
       </c>
-      <c r="C229" s="5" t="s">
+      <c r="C229" t="s">
         <v>3</v>
       </c>
       <c r="D229" t="str">
@@ -8658,7 +8655,7 @@
       <c r="B230" t="s">
         <v>3</v>
       </c>
-      <c r="C230" s="5" t="s">
+      <c r="C230" t="s">
         <v>3</v>
       </c>
       <c r="D230" t="str">
@@ -8677,7 +8674,7 @@
       <c r="B231" t="s">
         <v>4</v>
       </c>
-      <c r="C231" s="5" t="s">
+      <c r="C231" t="s">
         <v>4</v>
       </c>
       <c r="D231" t="str">
@@ -8696,7 +8693,7 @@
       <c r="B232" t="s">
         <v>4</v>
       </c>
-      <c r="C232" s="5" t="s">
+      <c r="C232" t="s">
         <v>4</v>
       </c>
       <c r="D232" t="str">
@@ -8715,7 +8712,7 @@
       <c r="B233" t="s">
         <v>4</v>
       </c>
-      <c r="C233" s="5" t="s">
+      <c r="C233" t="s">
         <v>5</v>
       </c>
       <c r="D233" t="str">
@@ -8734,7 +8731,7 @@
       <c r="B234" t="s">
         <v>4</v>
       </c>
-      <c r="C234" s="5" t="s">
+      <c r="C234" t="s">
         <v>4</v>
       </c>
       <c r="D234" t="str">
@@ -8753,7 +8750,7 @@
       <c r="B235" t="s">
         <v>3</v>
       </c>
-      <c r="C235" s="5" t="s">
+      <c r="C235" t="s">
         <v>3</v>
       </c>
       <c r="D235" t="str">
@@ -8772,7 +8769,7 @@
       <c r="B236" t="s">
         <v>3</v>
       </c>
-      <c r="C236" s="5" t="s">
+      <c r="C236" t="s">
         <v>3</v>
       </c>
       <c r="D236" t="str">
@@ -8791,7 +8788,7 @@
       <c r="B237" t="s">
         <v>3</v>
       </c>
-      <c r="C237" s="5" t="s">
+      <c r="C237" t="s">
         <v>3</v>
       </c>
       <c r="D237" t="str">
@@ -8810,7 +8807,7 @@
       <c r="B238" t="s">
         <v>3</v>
       </c>
-      <c r="C238" s="5" t="s">
+      <c r="C238" t="s">
         <v>3</v>
       </c>
       <c r="D238" t="str">
@@ -8829,7 +8826,7 @@
       <c r="B239" t="s">
         <v>4</v>
       </c>
-      <c r="C239" s="5" t="s">
+      <c r="C239" t="s">
         <v>6</v>
       </c>
       <c r="D239" t="str">
@@ -8848,7 +8845,7 @@
       <c r="B240" t="s">
         <v>3</v>
       </c>
-      <c r="C240" s="5" t="s">
+      <c r="C240" t="s">
         <v>3</v>
       </c>
       <c r="D240" t="str">
@@ -8867,7 +8864,7 @@
       <c r="B241" t="s">
         <v>3</v>
       </c>
-      <c r="C241" s="5" t="s">
+      <c r="C241" t="s">
         <v>3</v>
       </c>
       <c r="D241" t="str">
@@ -8886,7 +8883,7 @@
       <c r="B242" t="s">
         <v>3</v>
       </c>
-      <c r="C242" s="5" t="s">
+      <c r="C242" t="s">
         <v>3</v>
       </c>
       <c r="D242" t="str">
@@ -8905,7 +8902,7 @@
       <c r="B243" t="s">
         <v>4</v>
       </c>
-      <c r="C243" s="5" t="s">
+      <c r="C243" t="s">
         <v>6</v>
       </c>
       <c r="D243" t="str">
@@ -8924,7 +8921,7 @@
       <c r="B244" t="s">
         <v>3</v>
       </c>
-      <c r="C244" s="5" t="s">
+      <c r="C244" t="s">
         <v>3</v>
       </c>
       <c r="D244" t="str">
@@ -8943,7 +8940,7 @@
       <c r="B245" t="s">
         <v>3</v>
       </c>
-      <c r="C245" s="5" t="s">
+      <c r="C245" t="s">
         <v>3</v>
       </c>
       <c r="D245" t="str">
@@ -8962,7 +8959,7 @@
       <c r="B246" t="s">
         <v>4</v>
       </c>
-      <c r="C246" s="5" t="s">
+      <c r="C246" t="s">
         <v>4</v>
       </c>
       <c r="D246" t="str">
@@ -8981,7 +8978,7 @@
       <c r="B247" t="s">
         <v>4</v>
       </c>
-      <c r="C247" s="5" t="s">
+      <c r="C247" t="s">
         <v>6</v>
       </c>
       <c r="D247" t="str">
@@ -9000,7 +8997,7 @@
       <c r="B248" t="s">
         <v>3</v>
       </c>
-      <c r="C248" s="5" t="s">
+      <c r="C248" t="s">
         <v>3</v>
       </c>
       <c r="D248" t="str">
@@ -9019,7 +9016,7 @@
       <c r="B249" t="s">
         <v>3</v>
       </c>
-      <c r="C249" s="5" t="s">
+      <c r="C249" t="s">
         <v>4</v>
       </c>
       <c r="D249" t="str">
@@ -9038,7 +9035,7 @@
       <c r="B250" t="s">
         <v>3</v>
       </c>
-      <c r="C250" s="5" t="s">
+      <c r="C250" t="s">
         <v>3</v>
       </c>
       <c r="D250" t="str">
@@ -9057,7 +9054,7 @@
       <c r="B251" t="s">
         <v>3</v>
       </c>
-      <c r="C251" s="5" t="s">
+      <c r="C251" t="s">
         <v>3</v>
       </c>
       <c r="D251" t="str">
@@ -9076,7 +9073,7 @@
       <c r="B252" t="s">
         <v>3</v>
       </c>
-      <c r="C252" s="5" t="s">
+      <c r="C252" t="s">
         <v>3</v>
       </c>
       <c r="D252" t="str">
@@ -9095,7 +9092,7 @@
       <c r="B253" t="s">
         <v>4</v>
       </c>
-      <c r="C253" s="5" t="s">
+      <c r="C253" t="s">
         <v>5</v>
       </c>
       <c r="D253" t="str">
@@ -9114,7 +9111,7 @@
       <c r="B254" t="s">
         <v>4</v>
       </c>
-      <c r="C254" s="5" t="s">
+      <c r="C254" t="s">
         <v>5</v>
       </c>
       <c r="D254" t="str">
@@ -9133,7 +9130,7 @@
       <c r="B255" t="s">
         <v>3</v>
       </c>
-      <c r="C255" s="5" t="s">
+      <c r="C255" t="s">
         <v>3</v>
       </c>
       <c r="D255" t="str">
@@ -9152,7 +9149,7 @@
       <c r="B256" t="s">
         <v>4</v>
       </c>
-      <c r="C256" s="5" t="s">
+      <c r="C256" t="s">
         <v>6</v>
       </c>
       <c r="D256" t="str">
@@ -9171,7 +9168,7 @@
       <c r="B257" t="s">
         <v>3</v>
       </c>
-      <c r="C257" s="5" t="s">
+      <c r="C257" t="s">
         <v>3</v>
       </c>
       <c r="D257" t="str">
@@ -9190,7 +9187,7 @@
       <c r="B258" t="s">
         <v>3</v>
       </c>
-      <c r="C258" s="5" t="s">
+      <c r="C258" t="s">
         <v>3</v>
       </c>
       <c r="D258" t="str">
@@ -9209,7 +9206,7 @@
       <c r="B259" t="s">
         <v>3</v>
       </c>
-      <c r="C259" s="5" t="s">
+      <c r="C259" t="s">
         <v>3</v>
       </c>
       <c r="D259" t="str">
@@ -9228,7 +9225,7 @@
       <c r="B260" t="s">
         <v>3</v>
       </c>
-      <c r="C260" s="5" t="s">
+      <c r="C260" t="s">
         <v>3</v>
       </c>
       <c r="D260" t="str">
@@ -9247,7 +9244,7 @@
       <c r="B261" t="s">
         <v>3</v>
       </c>
-      <c r="C261" s="5" t="s">
+      <c r="C261" t="s">
         <v>3</v>
       </c>
       <c r="D261" t="str">
@@ -9266,7 +9263,7 @@
       <c r="B262" t="s">
         <v>3</v>
       </c>
-      <c r="C262" s="5" t="s">
+      <c r="C262" t="s">
         <v>3</v>
       </c>
       <c r="D262" t="str">
@@ -9285,7 +9282,7 @@
       <c r="B263" t="s">
         <v>3</v>
       </c>
-      <c r="C263" s="5" t="s">
+      <c r="C263" t="s">
         <v>4</v>
       </c>
       <c r="D263" t="str">
@@ -9304,7 +9301,7 @@
       <c r="B264" t="s">
         <v>3</v>
       </c>
-      <c r="C264" s="5" t="s">
+      <c r="C264" t="s">
         <v>3</v>
       </c>
       <c r="D264" t="str">
@@ -9323,7 +9320,7 @@
       <c r="B265" t="s">
         <v>3</v>
       </c>
-      <c r="C265" s="5" t="s">
+      <c r="C265" t="s">
         <v>3</v>
       </c>
       <c r="D265" t="str">
@@ -9342,7 +9339,7 @@
       <c r="B266" t="s">
         <v>3</v>
       </c>
-      <c r="C266" s="5" t="s">
+      <c r="C266" t="s">
         <v>3</v>
       </c>
       <c r="D266" t="str">
@@ -9361,7 +9358,7 @@
       <c r="B267" t="s">
         <v>3</v>
       </c>
-      <c r="C267" s="5" t="s">
+      <c r="C267" t="s">
         <v>3</v>
       </c>
       <c r="D267" t="str">
@@ -9380,7 +9377,7 @@
       <c r="B268" t="s">
         <v>4</v>
       </c>
-      <c r="C268" s="5" t="s">
+      <c r="C268" t="s">
         <v>4</v>
       </c>
       <c r="D268" t="str">
@@ -9399,7 +9396,7 @@
       <c r="B269" t="s">
         <v>3</v>
       </c>
-      <c r="C269" s="5" t="s">
+      <c r="C269" t="s">
         <v>3</v>
       </c>
       <c r="D269" t="str">
@@ -9418,7 +9415,7 @@
       <c r="B270" t="s">
         <v>3</v>
       </c>
-      <c r="C270" s="5" t="s">
+      <c r="C270" t="s">
         <v>3</v>
       </c>
       <c r="D270" t="str">
@@ -9437,7 +9434,7 @@
       <c r="B271" t="s">
         <v>3</v>
       </c>
-      <c r="C271" s="5" t="s">
+      <c r="C271" t="s">
         <v>4</v>
       </c>
       <c r="D271" t="str">
@@ -9456,7 +9453,7 @@
       <c r="B272" t="s">
         <v>3</v>
       </c>
-      <c r="C272" s="5" t="s">
+      <c r="C272" t="s">
         <v>4</v>
       </c>
       <c r="D272" t="str">
@@ -9475,7 +9472,7 @@
       <c r="B273" t="s">
         <v>4</v>
       </c>
-      <c r="C273" s="5" t="s">
+      <c r="C273" t="s">
         <v>4</v>
       </c>
       <c r="D273" t="str">
@@ -9494,7 +9491,7 @@
       <c r="B274" t="s">
         <v>3</v>
       </c>
-      <c r="C274" s="5" t="s">
+      <c r="C274" t="s">
         <v>3</v>
       </c>
       <c r="D274" t="str">
@@ -9513,7 +9510,7 @@
       <c r="B275" t="s">
         <v>4</v>
       </c>
-      <c r="C275" s="5" t="s">
+      <c r="C275" t="s">
         <v>4</v>
       </c>
       <c r="D275" t="str">
@@ -9532,7 +9529,7 @@
       <c r="B276" t="s">
         <v>3</v>
       </c>
-      <c r="C276" s="5" t="s">
+      <c r="C276" t="s">
         <v>4</v>
       </c>
       <c r="D276" t="str">
@@ -9551,7 +9548,7 @@
       <c r="B277" t="s">
         <v>3</v>
       </c>
-      <c r="C277" s="5" t="s">
+      <c r="C277" t="s">
         <v>4</v>
       </c>
       <c r="D277" t="str">
@@ -9570,7 +9567,7 @@
       <c r="B278" t="s">
         <v>3</v>
       </c>
-      <c r="C278" s="5" t="s">
+      <c r="C278" t="s">
         <v>3</v>
       </c>
       <c r="D278" t="str">
@@ -9589,7 +9586,7 @@
       <c r="B279" t="s">
         <v>3</v>
       </c>
-      <c r="C279" s="5" t="s">
+      <c r="C279" t="s">
         <v>3</v>
       </c>
       <c r="D279" t="str">
@@ -9608,7 +9605,7 @@
       <c r="B280" t="s">
         <v>3</v>
       </c>
-      <c r="C280" s="5" t="s">
+      <c r="C280" t="s">
         <v>3</v>
       </c>
       <c r="D280" t="str">
@@ -9627,7 +9624,7 @@
       <c r="B281" t="s">
         <v>3</v>
       </c>
-      <c r="C281" s="5" t="s">
+      <c r="C281" t="s">
         <v>3</v>
       </c>
       <c r="D281" t="str">
@@ -9646,7 +9643,7 @@
       <c r="B282" t="s">
         <v>3</v>
       </c>
-      <c r="C282" s="5" t="s">
+      <c r="C282" t="s">
         <v>3</v>
       </c>
       <c r="D282" t="str">
@@ -9665,7 +9662,7 @@
       <c r="B283" t="s">
         <v>3</v>
       </c>
-      <c r="C283" s="5" t="s">
+      <c r="C283" t="s">
         <v>3</v>
       </c>
       <c r="D283" t="str">
@@ -9684,7 +9681,7 @@
       <c r="B284" t="s">
         <v>3</v>
       </c>
-      <c r="C284" s="5" t="s">
+      <c r="C284" t="s">
         <v>3</v>
       </c>
       <c r="D284" t="str">
@@ -9703,7 +9700,7 @@
       <c r="B285" t="s">
         <v>4</v>
       </c>
-      <c r="C285" s="5" t="s">
+      <c r="C285" t="s">
         <v>4</v>
       </c>
       <c r="D285" t="str">
@@ -9722,7 +9719,7 @@
       <c r="B286" t="s">
         <v>4</v>
       </c>
-      <c r="C286" s="5" t="s">
+      <c r="C286" t="s">
         <v>5</v>
       </c>
       <c r="D286" t="str">
@@ -9741,7 +9738,7 @@
       <c r="B287" t="s">
         <v>3</v>
       </c>
-      <c r="C287" s="5" t="s">
+      <c r="C287" t="s">
         <v>3</v>
       </c>
       <c r="D287" t="str">
@@ -9760,7 +9757,7 @@
       <c r="B288" t="s">
         <v>3</v>
       </c>
-      <c r="C288" s="5" t="s">
+      <c r="C288" t="s">
         <v>3</v>
       </c>
       <c r="D288" t="str">
@@ -9779,7 +9776,7 @@
       <c r="B289" t="s">
         <v>3</v>
       </c>
-      <c r="C289" s="5" t="s">
+      <c r="C289" t="s">
         <v>3</v>
       </c>
       <c r="D289" t="str">
@@ -9798,7 +9795,7 @@
       <c r="B290" t="s">
         <v>4</v>
       </c>
-      <c r="C290" s="5" t="s">
+      <c r="C290" t="s">
         <v>4</v>
       </c>
       <c r="D290" t="str">
@@ -9817,7 +9814,7 @@
       <c r="B291" t="s">
         <v>3</v>
       </c>
-      <c r="C291" s="5" t="s">
+      <c r="C291" t="s">
         <v>3</v>
       </c>
       <c r="D291" t="str">
@@ -9836,7 +9833,7 @@
       <c r="B292" t="s">
         <v>4</v>
       </c>
-      <c r="C292" s="5" t="s">
+      <c r="C292" t="s">
         <v>4</v>
       </c>
       <c r="D292" t="str">
@@ -9855,7 +9852,7 @@
       <c r="B293" t="s">
         <v>4</v>
       </c>
-      <c r="C293" s="5" t="s">
+      <c r="C293" t="s">
         <v>5</v>
       </c>
       <c r="D293" t="str">
@@ -9874,7 +9871,7 @@
       <c r="B294" t="s">
         <v>3</v>
       </c>
-      <c r="C294" s="5" t="s">
+      <c r="C294" t="s">
         <v>3</v>
       </c>
       <c r="D294" t="str">
@@ -9893,7 +9890,7 @@
       <c r="B295" t="s">
         <v>3</v>
       </c>
-      <c r="C295" s="5" t="s">
+      <c r="C295" t="s">
         <v>3</v>
       </c>
       <c r="D295" t="str">
@@ -9912,7 +9909,7 @@
       <c r="B296" t="s">
         <v>3</v>
       </c>
-      <c r="C296" s="5" t="s">
+      <c r="C296" t="s">
         <v>3</v>
       </c>
       <c r="D296" t="str">
@@ -9931,7 +9928,7 @@
       <c r="B297" t="s">
         <v>4</v>
       </c>
-      <c r="C297" s="5" t="s">
+      <c r="C297" t="s">
         <v>5</v>
       </c>
       <c r="D297" t="str">
@@ -9950,7 +9947,7 @@
       <c r="B298" t="s">
         <v>3</v>
       </c>
-      <c r="C298" s="5" t="s">
+      <c r="C298" t="s">
         <v>4</v>
       </c>
       <c r="D298" t="str">
@@ -9969,7 +9966,7 @@
       <c r="B299" t="s">
         <v>3</v>
       </c>
-      <c r="C299" s="5" t="s">
+      <c r="C299" t="s">
         <v>3</v>
       </c>
       <c r="D299" t="str">
@@ -9988,7 +9985,7 @@
       <c r="B300" t="s">
         <v>3</v>
       </c>
-      <c r="C300" s="5" t="s">
+      <c r="C300" t="s">
         <v>3</v>
       </c>
       <c r="D300" t="str">
@@ -10007,7 +10004,7 @@
       <c r="B301" t="s">
         <v>3</v>
       </c>
-      <c r="C301" s="5" t="s">
+      <c r="C301" t="s">
         <v>3</v>
       </c>
       <c r="D301" t="str">
@@ -10026,7 +10023,7 @@
       <c r="B302" t="s">
         <v>3</v>
       </c>
-      <c r="C302" s="5" t="s">
+      <c r="C302" t="s">
         <v>3</v>
       </c>
       <c r="D302" t="str">
@@ -10045,7 +10042,7 @@
       <c r="B303" t="s">
         <v>3</v>
       </c>
-      <c r="C303" s="5" t="s">
+      <c r="C303" t="s">
         <v>3</v>
       </c>
       <c r="D303" t="str">
@@ -10064,7 +10061,7 @@
       <c r="B304" t="s">
         <v>4</v>
       </c>
-      <c r="C304" s="5" t="s">
+      <c r="C304" t="s">
         <v>4</v>
       </c>
       <c r="D304" t="str">
@@ -10083,7 +10080,7 @@
       <c r="B305" t="s">
         <v>4</v>
       </c>
-      <c r="C305" s="5" t="s">
+      <c r="C305" t="s">
         <v>6</v>
       </c>
       <c r="D305" t="str">
@@ -10102,7 +10099,7 @@
       <c r="B306" t="s">
         <v>3</v>
       </c>
-      <c r="C306" s="5" t="s">
+      <c r="C306" t="s">
         <v>3</v>
       </c>
       <c r="D306" t="str">
@@ -10121,7 +10118,7 @@
       <c r="B307" t="s">
         <v>3</v>
       </c>
-      <c r="C307" s="5" t="s">
+      <c r="C307" t="s">
         <v>3</v>
       </c>
       <c r="D307" t="str">
@@ -10140,7 +10137,7 @@
       <c r="B308" t="s">
         <v>3</v>
       </c>
-      <c r="C308" s="5" t="s">
+      <c r="C308" t="s">
         <v>3</v>
       </c>
       <c r="D308" t="str">
@@ -10159,7 +10156,7 @@
       <c r="B309" t="s">
         <v>5</v>
       </c>
-      <c r="C309" s="5" t="s">
+      <c r="C309" t="s">
         <v>5</v>
       </c>
       <c r="D309" t="str">
@@ -10178,7 +10175,7 @@
       <c r="B310" t="s">
         <v>5</v>
       </c>
-      <c r="C310" s="5" t="s">
+      <c r="C310" t="s">
         <v>5</v>
       </c>
       <c r="D310" t="str">
@@ -10197,7 +10194,7 @@
       <c r="B311" t="s">
         <v>3</v>
       </c>
-      <c r="C311" s="5" t="s">
+      <c r="C311" t="s">
         <v>3</v>
       </c>
       <c r="D311" t="str">
@@ -10216,7 +10213,7 @@
       <c r="B312" t="s">
         <v>3</v>
       </c>
-      <c r="C312" s="5" t="s">
+      <c r="C312" t="s">
         <v>3</v>
       </c>
       <c r="D312" t="str">
@@ -10235,7 +10232,7 @@
       <c r="B313" t="s">
         <v>4</v>
       </c>
-      <c r="C313" s="5" t="s">
+      <c r="C313" t="s">
         <v>6</v>
       </c>
       <c r="D313" t="str">
@@ -10254,7 +10251,7 @@
       <c r="B314" t="s">
         <v>5</v>
       </c>
-      <c r="C314" s="5" t="s">
+      <c r="C314" t="s">
         <v>5</v>
       </c>
       <c r="D314" t="str">
@@ -10273,7 +10270,7 @@
       <c r="B315" t="s">
         <v>3</v>
       </c>
-      <c r="C315" s="5" t="s">
+      <c r="C315" t="s">
         <v>4</v>
       </c>
       <c r="D315" t="str">
@@ -10292,7 +10289,7 @@
       <c r="B316" t="s">
         <v>4</v>
       </c>
-      <c r="C316" s="5" t="s">
+      <c r="C316" t="s">
         <v>6</v>
       </c>
       <c r="D316" t="str">
@@ -10311,7 +10308,7 @@
       <c r="B317" t="s">
         <v>3</v>
       </c>
-      <c r="C317" s="5" t="s">
+      <c r="C317" t="s">
         <v>3</v>
       </c>
       <c r="D317" t="str">
@@ -10330,7 +10327,7 @@
       <c r="B318" t="s">
         <v>3</v>
       </c>
-      <c r="C318" s="5" t="s">
+      <c r="C318" t="s">
         <v>3</v>
       </c>
       <c r="D318" t="str">
@@ -10349,7 +10346,7 @@
       <c r="B319" t="s">
         <v>3</v>
       </c>
-      <c r="C319" s="5" t="s">
+      <c r="C319" t="s">
         <v>3</v>
       </c>
       <c r="D319" t="str">
@@ -10368,7 +10365,7 @@
       <c r="B320" t="s">
         <v>3</v>
       </c>
-      <c r="C320" s="5" t="s">
+      <c r="C320" t="s">
         <v>3</v>
       </c>
       <c r="D320" t="str">
@@ -10387,7 +10384,7 @@
       <c r="B321" t="s">
         <v>3</v>
       </c>
-      <c r="C321" s="5" t="s">
+      <c r="C321" t="s">
         <v>3</v>
       </c>
       <c r="D321" t="str">
@@ -10406,7 +10403,7 @@
       <c r="B322" t="s">
         <v>4</v>
       </c>
-      <c r="C322" s="5" t="s">
+      <c r="C322" t="s">
         <v>5</v>
       </c>
       <c r="D322" t="str">
@@ -10425,7 +10422,7 @@
       <c r="B323" t="s">
         <v>4</v>
       </c>
-      <c r="C323" s="5" t="s">
+      <c r="C323" t="s">
         <v>6</v>
       </c>
       <c r="D323" t="str">
@@ -10444,7 +10441,7 @@
       <c r="B324" t="s">
         <v>3</v>
       </c>
-      <c r="C324" s="5" t="s">
+      <c r="C324" t="s">
         <v>3</v>
       </c>
       <c r="D324" t="str">
@@ -10463,7 +10460,7 @@
       <c r="B325" t="s">
         <v>3</v>
       </c>
-      <c r="C325" s="5" t="s">
+      <c r="C325" t="s">
         <v>4</v>
       </c>
       <c r="D325" t="str">
@@ -10482,7 +10479,7 @@
       <c r="B326" t="s">
         <v>4</v>
       </c>
-      <c r="C326" s="5" t="s">
+      <c r="C326" t="s">
         <v>6</v>
       </c>
       <c r="D326" t="str">
@@ -10501,7 +10498,7 @@
       <c r="B327" t="s">
         <v>3</v>
       </c>
-      <c r="C327" s="5" t="s">
+      <c r="C327" t="s">
         <v>3</v>
       </c>
       <c r="D327" t="str">
@@ -10520,7 +10517,7 @@
       <c r="B328" t="s">
         <v>3</v>
       </c>
-      <c r="C328" s="5" t="s">
+      <c r="C328" t="s">
         <v>3</v>
       </c>
       <c r="D328" t="str">
@@ -10539,7 +10536,7 @@
       <c r="B329" t="s">
         <v>6</v>
       </c>
-      <c r="C329" s="5" t="s">
+      <c r="C329" t="s">
         <v>6</v>
       </c>
       <c r="D329" t="str">
@@ -10558,7 +10555,7 @@
       <c r="B330" t="s">
         <v>6</v>
       </c>
-      <c r="C330" s="5" t="s">
+      <c r="C330" t="s">
         <v>3</v>
       </c>
       <c r="D330" t="str">
@@ -10577,7 +10574,7 @@
       <c r="B331" t="s">
         <v>5</v>
       </c>
-      <c r="C331" s="5" t="s">
+      <c r="C331" t="s">
         <v>5</v>
       </c>
       <c r="D331" t="str">
@@ -10596,7 +10593,7 @@
       <c r="B332" t="s">
         <v>3</v>
       </c>
-      <c r="C332" s="5" t="s">
+      <c r="C332" t="s">
         <v>3</v>
       </c>
       <c r="D332" t="str">
@@ -10615,7 +10612,7 @@
       <c r="B333" t="s">
         <v>3</v>
       </c>
-      <c r="C333" s="5" t="s">
+      <c r="C333" t="s">
         <v>3</v>
       </c>
       <c r="D333" t="str">
@@ -10634,7 +10631,7 @@
       <c r="B334" t="s">
         <v>3</v>
       </c>
-      <c r="C334" s="5" t="s">
+      <c r="C334" t="s">
         <v>3</v>
       </c>
       <c r="D334" t="str">
@@ -10653,7 +10650,7 @@
       <c r="B335" t="s">
         <v>3</v>
       </c>
-      <c r="C335" s="5" t="s">
+      <c r="C335" t="s">
         <v>3</v>
       </c>
       <c r="D335" t="str">
@@ -10672,7 +10669,7 @@
       <c r="B336" t="s">
         <v>3</v>
       </c>
-      <c r="C336" s="5" t="s">
+      <c r="C336" t="s">
         <v>3</v>
       </c>
       <c r="D336" t="str">
@@ -10691,7 +10688,7 @@
       <c r="B337" t="s">
         <v>3</v>
       </c>
-      <c r="C337" s="5" t="s">
+      <c r="C337" t="s">
         <v>3</v>
       </c>
       <c r="D337" t="str">
@@ -10710,7 +10707,7 @@
       <c r="B338" t="s">
         <v>3</v>
       </c>
-      <c r="C338" s="5" t="s">
+      <c r="C338" t="s">
         <v>3</v>
       </c>
       <c r="D338" t="str">
@@ -10729,7 +10726,7 @@
       <c r="B339" t="s">
         <v>6</v>
       </c>
-      <c r="C339" s="5" t="s">
+      <c r="C339" t="s">
         <v>6</v>
       </c>
       <c r="D339" t="str">
@@ -10748,7 +10745,7 @@
       <c r="B340" t="s">
         <v>5</v>
       </c>
-      <c r="C340" s="5" t="s">
+      <c r="C340" t="s">
         <v>5</v>
       </c>
       <c r="D340" t="str">
@@ -10767,7 +10764,7 @@
       <c r="B341" t="s">
         <v>6</v>
       </c>
-      <c r="C341" s="5" t="s">
+      <c r="C341" t="s">
         <v>6</v>
       </c>
       <c r="D341" t="str">
@@ -10786,7 +10783,7 @@
       <c r="B342" t="s">
         <v>3</v>
       </c>
-      <c r="C342" s="5" t="s">
+      <c r="C342" t="s">
         <v>3</v>
       </c>
       <c r="D342" t="str">
@@ -10805,7 +10802,7 @@
       <c r="B343" t="s">
         <v>3</v>
       </c>
-      <c r="C343" s="5" t="s">
+      <c r="C343" t="s">
         <v>3</v>
       </c>
       <c r="D343" t="str">
@@ -10824,7 +10821,7 @@
       <c r="B344" t="s">
         <v>3</v>
       </c>
-      <c r="C344" s="5" t="s">
+      <c r="C344" t="s">
         <v>3</v>
       </c>
       <c r="D344" t="str">
@@ -10843,7 +10840,7 @@
       <c r="B345" t="s">
         <v>6</v>
       </c>
-      <c r="C345" s="5" t="s">
+      <c r="C345" t="s">
         <v>6</v>
       </c>
       <c r="D345" t="str">
@@ -10862,7 +10859,7 @@
       <c r="B346" t="s">
         <v>6</v>
       </c>
-      <c r="C346" s="5" t="s">
+      <c r="C346" t="s">
         <v>4</v>
       </c>
       <c r="D346" t="str">
